--- a/Agents.xlsx
+++ b/Agents.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="895">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="894">
   <si>
     <t>Name</t>
   </si>
@@ -25,7 +25,7 @@
     <t>Laura Young</t>
   </si>
   <si>
-    <t>720-231-2216</t>
+    <t>7202312216</t>
   </si>
   <si>
     <t>laura.young@kw.com</t>
@@ -34,7 +34,7 @@
     <t>Jeff Wambolt</t>
   </si>
   <si>
-    <t>303-520-5792</t>
+    <t>3035205792</t>
   </si>
   <si>
     <t>jeffwambolt@kw.com</t>
@@ -43,7 +43,7 @@
     <t>Raul Tarango</t>
   </si>
   <si>
-    <t>7209885714Em</t>
+    <t>7209885714</t>
   </si>
   <si>
     <t>raultarango@kw.com</t>
@@ -52,7 +52,7 @@
     <t>Amy Felperin</t>
   </si>
   <si>
-    <t>7072957242Em</t>
+    <t>7072957242</t>
   </si>
   <si>
     <t>amyrenerealty@gmail.com</t>
@@ -61,7 +61,7 @@
     <t>Tonya Gilley</t>
   </si>
   <si>
-    <t>7692573600Em</t>
+    <t>7692573600</t>
   </si>
   <si>
     <t>tonyagilley@kw.com</t>
@@ -70,7 +70,7 @@
     <t>Erin Brumleve</t>
   </si>
   <si>
-    <t>3036817913Em</t>
+    <t>3036817913</t>
   </si>
   <si>
     <t>e.brumleve@kw.com</t>
@@ -79,7 +79,7 @@
     <t>Cellini Cellini</t>
   </si>
   <si>
-    <t>3035512626Em</t>
+    <t>3035512626</t>
   </si>
   <si>
     <t>cellini@kw.com</t>
@@ -88,7 +88,7 @@
     <t>Jane Bourgoin</t>
   </si>
   <si>
-    <t>303-868-5409</t>
+    <t>3038685409</t>
   </si>
   <si>
     <t>jbourgoin@kw.com</t>
@@ -97,7 +97,7 @@
     <t>Shawntel Sumstad</t>
   </si>
   <si>
-    <t>3032509434Em</t>
+    <t>3032509434</t>
   </si>
   <si>
     <t>realtor.shawntelsumstad@gmail.com</t>
@@ -106,7 +106,7 @@
     <t>Scott Rosengrants</t>
   </si>
   <si>
-    <t>970-412-7863</t>
+    <t>9704127863</t>
   </si>
   <si>
     <t>scottrosengrants@gmail.com</t>
@@ -115,7 +115,7 @@
     <t>Jennifer Balbina Sosa</t>
   </si>
   <si>
-    <t>3475298422Em</t>
+    <t>3475298422</t>
   </si>
   <si>
     <t>info@jenniferbslbinasosa.com</t>
@@ -124,7 +124,7 @@
     <t>Chiara Spavieri</t>
   </si>
   <si>
-    <t>303-818-5438</t>
+    <t>3038185438</t>
   </si>
   <si>
     <t>chiarasubhas@kw.com</t>
@@ -133,7 +133,7 @@
     <t>Shannon Garcia</t>
   </si>
   <si>
-    <t>9702702913Em</t>
+    <t>9702702913</t>
   </si>
   <si>
     <t>shannongarcia@kw.com</t>
@@ -142,7 +142,7 @@
     <t>Christopher Gravina</t>
   </si>
   <si>
-    <t>7204803672Em</t>
+    <t>7204803672</t>
   </si>
   <si>
     <t>chrisgravina@kw.com</t>
@@ -151,7 +151,7 @@
     <t>Michelle Pinto</t>
   </si>
   <si>
-    <t>303-746-3088</t>
+    <t>3037463088</t>
   </si>
   <si>
     <t>michelle@mpdenverhomes.com</t>
@@ -160,7 +160,7 @@
     <t>Bernadette Lopez</t>
   </si>
   <si>
-    <t>7202555651Em</t>
+    <t>7202555651</t>
   </si>
   <si>
     <t>bernadette.lopez.kw@gmail.com</t>
@@ -169,7 +169,7 @@
     <t>Jennifer Castro</t>
   </si>
   <si>
-    <t>720-296-9605</t>
+    <t>7202969605</t>
   </si>
   <si>
     <t>jennifercastro@kw.com</t>
@@ -178,7 +178,7 @@
     <t>Madison Otten</t>
   </si>
   <si>
-    <t>720-556-7291</t>
+    <t>7205567291</t>
   </si>
   <si>
     <t>madison.otten@kw.com</t>
@@ -187,7 +187,7 @@
     <t>Derek Stewart</t>
   </si>
   <si>
-    <t>6102074324Em</t>
+    <t>6102074324</t>
   </si>
   <si>
     <t>derekstewart@kw.com</t>
@@ -196,7 +196,7 @@
     <t>Yvonne Perry</t>
   </si>
   <si>
-    <t>8163250211Em</t>
+    <t>8163250211</t>
   </si>
   <si>
     <t>yvonneperry@kw.com</t>
@@ -205,17 +205,13 @@
     <t>Mitsue Yamamoto</t>
   </si>
   <si>
-    <t xml:space="preserve">Email
-      </t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
     <t>Lori Greenly</t>
   </si>
   <si>
-    <t>7209857455Em</t>
+    <t>7209857455</t>
   </si>
   <si>
     <t>Info@denverhighriseliiving.org</t>
@@ -224,7 +220,7 @@
     <t>Andrea Torres</t>
   </si>
   <si>
-    <t>7209388183Em</t>
+    <t>7209388183</t>
   </si>
   <si>
     <t>Andrea.Torres@kw.com</t>
@@ -233,7 +229,7 @@
     <t>Chrishna Srey</t>
   </si>
   <si>
-    <t>6159734722Em</t>
+    <t>6159734722</t>
   </si>
   <si>
     <t>chrishna@kw.com</t>
@@ -242,7 +238,7 @@
     <t>Christine Babylon</t>
   </si>
   <si>
-    <t>970-685-0015</t>
+    <t>9706850015</t>
   </si>
   <si>
     <t>bebebabylon08@gmail.com</t>
@@ -251,7 +247,7 @@
     <t>Ashi Kitchlew</t>
   </si>
   <si>
-    <t>7202617256Em</t>
+    <t>7202617256</t>
   </si>
   <si>
     <t>ashi@homesbyashi.com</t>
@@ -263,7 +259,7 @@
     <t>Monica Luckie</t>
   </si>
   <si>
-    <t>7205931142Em</t>
+    <t>7205931142</t>
   </si>
   <si>
     <t>monicaluckie@kw.com</t>
@@ -272,7 +268,7 @@
     <t>Annette Espinoza</t>
   </si>
   <si>
-    <t>3035237965Em</t>
+    <t>3035237965</t>
   </si>
   <si>
     <t>annetteespinoza@kw.com</t>
@@ -281,7 +277,7 @@
     <t>Sean Ewers</t>
   </si>
   <si>
-    <t>7207730912Em</t>
+    <t>7207730912</t>
   </si>
   <si>
     <t>SeanEwers@kw.com</t>
@@ -290,7 +286,7 @@
     <t>Bobby Miner</t>
   </si>
   <si>
-    <t>9148444269Em</t>
+    <t>9148444269</t>
   </si>
   <si>
     <t>bobby@milehighcollective.com</t>
@@ -299,7 +295,7 @@
     <t>Felicia Nevarez</t>
   </si>
   <si>
-    <t>3036189374Em</t>
+    <t>3036189374</t>
   </si>
   <si>
     <t>felicianevarez@comcast.net</t>
@@ -308,7 +304,7 @@
     <t>Felicia Medina</t>
   </si>
   <si>
-    <t>7204328548Em</t>
+    <t>7204328548</t>
   </si>
   <si>
     <t>felicia@milehighcollective.com</t>
@@ -317,7 +313,7 @@
     <t>Amanda White</t>
   </si>
   <si>
-    <t>8168053299Em</t>
+    <t>8168053299</t>
   </si>
   <si>
     <t>amanda.white@kw.com</t>
@@ -326,7 +322,7 @@
     <t>Jennifer Scott</t>
   </si>
   <si>
-    <t>720-299-2673</t>
+    <t>7202992673</t>
   </si>
   <si>
     <t>jrscotthomes@gmail.com</t>
@@ -335,7 +331,7 @@
     <t>stephen maguina</t>
   </si>
   <si>
-    <t>3034359381Em</t>
+    <t>3034359381</t>
   </si>
   <si>
     <t>maguinaproperties@gmail.com</t>
@@ -344,7 +340,7 @@
     <t>Sheryl Meranda</t>
   </si>
   <si>
-    <t>303-913-5810</t>
+    <t>3039135810</t>
   </si>
   <si>
     <t>sheri.meranda@kw.com</t>
@@ -353,7 +349,7 @@
     <t>Daniel Terrazas</t>
   </si>
   <si>
-    <t>7209193218Em</t>
+    <t>7209193218</t>
   </si>
   <si>
     <t>dannytrealty@gmail.com</t>
@@ -362,7 +358,7 @@
     <t>Rachel Colorosa</t>
   </si>
   <si>
-    <t>303-886-8154</t>
+    <t>3038868154</t>
   </si>
   <si>
     <t>rachel.colorosa@kw.com</t>
@@ -371,7 +367,7 @@
     <t>Erick Arreola</t>
   </si>
   <si>
-    <t>3037258117Em</t>
+    <t>3037258117</t>
   </si>
   <si>
     <t>erickarreola@kw.com</t>
@@ -380,7 +376,7 @@
     <t>Daniel Gullickson</t>
   </si>
   <si>
-    <t>3039158246Em</t>
+    <t>3039158246</t>
   </si>
   <si>
     <t>dan.gullickson@kw.com</t>
@@ -389,7 +385,7 @@
     <t>Teresa Ortiz</t>
   </si>
   <si>
-    <t>4244259279Em</t>
+    <t>4244259279</t>
   </si>
   <si>
     <t>teresaaortiz@kw.com</t>
@@ -398,7 +394,7 @@
     <t>Luke McEvilly</t>
   </si>
   <si>
-    <t>303-358-3702</t>
+    <t>3033583702</t>
   </si>
   <si>
     <t>luke@bringhomedenver.com</t>
@@ -407,7 +403,7 @@
     <t>Derek J Kats</t>
   </si>
   <si>
-    <t>4024663748Em</t>
+    <t>4024663748</t>
   </si>
   <si>
     <t>derekjkats@kw.com</t>
@@ -416,7 +412,7 @@
     <t>Will Story</t>
   </si>
   <si>
-    <t>7209757227Em</t>
+    <t>7209757227</t>
   </si>
   <si>
     <t>Will@HergGroup.com</t>
@@ -425,7 +421,7 @@
     <t>Bobbie Jo Salazar</t>
   </si>
   <si>
-    <t>7203665857Em</t>
+    <t>7203665857</t>
   </si>
   <si>
     <t>bsalazar@kw.com</t>
@@ -434,7 +430,7 @@
     <t>Anna delHierro</t>
   </si>
   <si>
-    <t>720-323-4275</t>
+    <t>7203234275</t>
   </si>
   <si>
     <t>anna.atencio@kw.com</t>
@@ -443,7 +439,7 @@
     <t>Mario Ramirez</t>
   </si>
   <si>
-    <t>9704970247Em</t>
+    <t>9704970247</t>
   </si>
   <si>
     <t>mramirez7333@kw.com</t>
@@ -452,7 +448,7 @@
     <t>Malin Strong</t>
   </si>
   <si>
-    <t>5037847079Em</t>
+    <t>5037847079</t>
   </si>
   <si>
     <t>malin@kw.com</t>
@@ -461,7 +457,7 @@
     <t>Sway Sara Way</t>
   </si>
   <si>
-    <t>5204403584Em</t>
+    <t>5204403584</t>
   </si>
   <si>
     <t>sway@kw.com</t>
@@ -470,7 +466,7 @@
     <t>Michel Gephart</t>
   </si>
   <si>
-    <t>3039412608Em</t>
+    <t>3039412608</t>
   </si>
   <si>
     <t>mgephart@kw.com</t>
@@ -479,7 +475,7 @@
     <t>Megan Kemp</t>
   </si>
   <si>
-    <t>970-590-1274</t>
+    <t>9705901274</t>
   </si>
   <si>
     <t>megankempkw@gmail.com</t>
@@ -488,7 +484,7 @@
     <t>Brenda Barron</t>
   </si>
   <si>
-    <t>7209553048Em</t>
+    <t>7209553048</t>
   </si>
   <si>
     <t>barronb@kw.com</t>
@@ -497,7 +493,7 @@
     <t>Delores Cordova</t>
   </si>
   <si>
-    <t>7203649710Em</t>
+    <t>7203649710</t>
   </si>
   <si>
     <t>deecordova@kw.com</t>
@@ -506,7 +502,7 @@
     <t>Gissel Rosario</t>
   </si>
   <si>
-    <t>7206203706Em</t>
+    <t>7206203706</t>
   </si>
   <si>
     <t>gisselrosario@kw.com</t>
@@ -515,7 +511,7 @@
     <t>Kari Wisenbaker</t>
   </si>
   <si>
-    <t>303-909-0906</t>
+    <t>3039090906</t>
   </si>
   <si>
     <t>kwisenbaker@kw.com</t>
@@ -524,7 +520,7 @@
     <t>Rodrigo Ortiz</t>
   </si>
   <si>
-    <t>3035968629Em</t>
+    <t>3035968629</t>
   </si>
   <si>
     <t>rodrigo@denverhighriseliving.com</t>
@@ -533,7 +529,7 @@
     <t>Melody Brunetti</t>
   </si>
   <si>
-    <t>720-364-1078</t>
+    <t>7203641078</t>
   </si>
   <si>
     <t>melody@melodysellsrealestate.com</t>
@@ -542,7 +538,7 @@
     <t>Andre Dixion</t>
   </si>
   <si>
-    <t>720-989-5582</t>
+    <t>7209895582</t>
   </si>
   <si>
     <t>andre.dixion@kw.com</t>
@@ -551,7 +547,7 @@
     <t>Melissa Wiggins</t>
   </si>
   <si>
-    <t>954-806-0010</t>
+    <t>9548060010</t>
   </si>
   <si>
     <t>mlwiggins@kw.com</t>
@@ -560,7 +556,7 @@
     <t>Chris Clark</t>
   </si>
   <si>
-    <t>3039498001Em</t>
+    <t>3039498001</t>
   </si>
   <si>
     <t>Chris@KWColoradoExperience.com</t>
@@ -569,7 +565,7 @@
     <t>Ann Winfrey</t>
   </si>
   <si>
-    <t>720-341-6929</t>
+    <t>7203416929</t>
   </si>
   <si>
     <t>awinfrey@bluepebblere.com</t>
@@ -578,7 +574,7 @@
     <t>Katie Cline</t>
   </si>
   <si>
-    <t>719-232-3550</t>
+    <t>7192323550</t>
   </si>
   <si>
     <t>kcline@kw.com</t>
@@ -587,7 +583,7 @@
     <t>Gary Best</t>
   </si>
   <si>
-    <t>520-444-0799</t>
+    <t>5204440799</t>
   </si>
   <si>
     <t>gbest@kw.com</t>
@@ -596,7 +592,7 @@
     <t>Luke Stalcup</t>
   </si>
   <si>
-    <t>9135684958Em</t>
+    <t>9135684958</t>
   </si>
   <si>
     <t>luke.stalcup@kw.com</t>
@@ -605,7 +601,7 @@
     <t>Dominic Morris</t>
   </si>
   <si>
-    <t>720-757-9939</t>
+    <t>7207579939</t>
   </si>
   <si>
     <t>dominic_morris@ymail.com</t>
@@ -614,7 +610,7 @@
     <t>David Kandel</t>
   </si>
   <si>
-    <t>8456168095Em</t>
+    <t>8456168095</t>
   </si>
   <si>
     <t>dkandel@kw.com</t>
@@ -626,7 +622,7 @@
     <t>Pamela Calhoun</t>
   </si>
   <si>
-    <t>303-332-6602</t>
+    <t>3033326602</t>
   </si>
   <si>
     <t>pcalhoun@kw.com</t>
@@ -635,7 +631,7 @@
     <t>Dulce Villanueva</t>
   </si>
   <si>
-    <t>7203651079Em</t>
+    <t>7203651079</t>
   </si>
   <si>
     <t>dvillanueva@kw.com</t>
@@ -644,7 +640,7 @@
     <t>Hector Dominguez</t>
   </si>
   <si>
-    <t>7207872143Em</t>
+    <t>7207872143</t>
   </si>
   <si>
     <t>hctr_dmngz@yahoo.com</t>
@@ -653,7 +649,7 @@
     <t>Robert Vasquez</t>
   </si>
   <si>
-    <t>303-564-5114</t>
+    <t>3035645114</t>
   </si>
   <si>
     <t>rvasquez@nlpdenver.com</t>
@@ -662,7 +658,7 @@
     <t>Mary Baker Blades</t>
   </si>
   <si>
-    <t>3034130331Em</t>
+    <t>3034130331</t>
   </si>
   <si>
     <t>mbakerblades@gmail.com</t>
@@ -671,7 +667,7 @@
     <t>Krystyna Zatorski</t>
   </si>
   <si>
-    <t>2199160394Em</t>
+    <t>2199160394</t>
   </si>
   <si>
     <t>krystynaz@kw.com</t>
@@ -680,7 +676,7 @@
     <t>Amanda Callahan</t>
   </si>
   <si>
-    <t>720-327-4078</t>
+    <t>7203274078</t>
   </si>
   <si>
     <t>amandalcallahan@kw.com</t>
@@ -689,7 +685,7 @@
     <t>Jameson Cappelli</t>
   </si>
   <si>
-    <t>7203552226Em</t>
+    <t>7203552226</t>
   </si>
   <si>
     <t>jamesoncappelli@kw.com</t>
@@ -698,7 +694,7 @@
     <t>Brian Becker</t>
   </si>
   <si>
-    <t>7206033775Em</t>
+    <t>7206033775</t>
   </si>
   <si>
     <t>brian.becker@herggroup.com</t>
@@ -707,7 +703,7 @@
     <t>Courtney Rudolph</t>
   </si>
   <si>
-    <t>3038888003Em</t>
+    <t>3038888003</t>
   </si>
   <si>
     <t>courtneyrudolph@kw.com</t>
@@ -716,7 +712,7 @@
     <t>Evan Thomoff</t>
   </si>
   <si>
-    <t>303-902-3194</t>
+    <t>3039023194</t>
   </si>
   <si>
     <t>evanthomoff@kw.com</t>
@@ -725,7 +721,7 @@
     <t>Jessica Baradan</t>
   </si>
   <si>
-    <t>7209846360Em</t>
+    <t>7209846360</t>
   </si>
   <si>
     <t>jessicabaradan@kw.com</t>
@@ -734,7 +730,7 @@
     <t>Eva Garcia</t>
   </si>
   <si>
-    <t>3035228963Em</t>
+    <t>3035228963</t>
   </si>
   <si>
     <t>Eva@LxHomeGroup.com</t>
@@ -743,7 +739,7 @@
     <t>Zack Tobiasz</t>
   </si>
   <si>
-    <t>239-565-5222</t>
+    <t>2395655222</t>
   </si>
   <si>
     <t>zacktobiasz@kw.com</t>
@@ -752,7 +748,7 @@
     <t>Kathi Miller</t>
   </si>
   <si>
-    <t>3039461454Em</t>
+    <t>3039461454</t>
   </si>
   <si>
     <t>kathimiller@kw.com</t>
@@ -761,7 +757,7 @@
     <t>Ryan Vonderach</t>
   </si>
   <si>
-    <t>925-964-6308</t>
+    <t>9259646308</t>
   </si>
   <si>
     <t>rvonderach@kw.com</t>
@@ -770,7 +766,7 @@
     <t>Kelsey Knight</t>
   </si>
   <si>
-    <t>9707121722Em</t>
+    <t>9707121722</t>
   </si>
   <si>
     <t>kelseyknight@kw.com</t>
@@ -779,7 +775,7 @@
     <t>Elisa Guida</t>
   </si>
   <si>
-    <t>3035235821Em</t>
+    <t>3035235821</t>
   </si>
   <si>
     <t>guidahomes@kw.com</t>
@@ -788,7 +784,7 @@
     <t>Brian Ortega</t>
   </si>
   <si>
-    <t>3036533774Em</t>
+    <t>3036533774</t>
   </si>
   <si>
     <t>briankortega@gmail.com</t>
@@ -797,7 +793,7 @@
     <t>Matthew Koller</t>
   </si>
   <si>
-    <t>303-704-3286</t>
+    <t>3037043286</t>
   </si>
   <si>
     <t>matthew.koller@kw.com</t>
@@ -806,7 +802,7 @@
     <t>Katherine Knowlton</t>
   </si>
   <si>
-    <t>9706180037Em</t>
+    <t>9706180037</t>
   </si>
   <si>
     <t>katie@denverhighriseliving.com</t>
@@ -815,7 +811,7 @@
     <t>Carol Duncan</t>
   </si>
   <si>
-    <t>3038772642Em</t>
+    <t>3038772642</t>
   </si>
   <si>
     <t>CarolDuncanTeam@gmail.com</t>
@@ -824,7 +820,7 @@
     <t>Monica Cespedes</t>
   </si>
   <si>
-    <t>7204358160Em</t>
+    <t>7204358160</t>
   </si>
   <si>
     <t>monicavc@kw.com</t>
@@ -833,7 +829,7 @@
     <t>Ivan Hernandez</t>
   </si>
   <si>
-    <t>7199642931Em</t>
+    <t>7199642931</t>
   </si>
   <si>
     <t>ivan@denversagent.com</t>
@@ -842,7 +838,7 @@
     <t>John Maddox</t>
   </si>
   <si>
-    <t>4047348500Em</t>
+    <t>4047348500</t>
   </si>
   <si>
     <t>jsmaddox@ambishisliving.com</t>
@@ -851,7 +847,7 @@
     <t>Dana Perea</t>
   </si>
   <si>
-    <t>7202326523Em</t>
+    <t>7202326523</t>
   </si>
   <si>
     <t>dpereakw@gmail.com</t>
@@ -860,7 +856,7 @@
     <t>Desirae Quintana</t>
   </si>
   <si>
-    <t>7209008988Em</t>
+    <t>7209008988</t>
   </si>
   <si>
     <t>dezzi@westhomegroup.net</t>
@@ -869,7 +865,7 @@
     <t>Jeannette Neubeiser</t>
   </si>
   <si>
-    <t>720-308-4477</t>
+    <t>7203084477</t>
   </si>
   <si>
     <t>Jeannette@DenverHomesandProperties.com</t>
@@ -878,7 +874,7 @@
     <t>Bring Home Denver</t>
   </si>
   <si>
-    <t>3032434789Em</t>
+    <t>3032434789</t>
   </si>
   <si>
     <t>Garrett@BringHomeDenver.com</t>
@@ -887,7 +883,7 @@
     <t>Shaun Long</t>
   </si>
   <si>
-    <t>3039106469Em</t>
+    <t>3039106469</t>
   </si>
   <si>
     <t>ShaunLong@KW.com</t>
@@ -896,7 +892,7 @@
     <t>Ryan Rose</t>
   </si>
   <si>
-    <t>7204413855Em</t>
+    <t>7204413855</t>
   </si>
   <si>
     <t>ryanrose@kw.com</t>
@@ -908,7 +904,7 @@
     <t>Quinn Pigott</t>
   </si>
   <si>
-    <t>847-707-0101</t>
+    <t>8477070101</t>
   </si>
   <si>
     <t>qpigott@gmail.com</t>
@@ -917,7 +913,7 @@
     <t>Rocio Arredondo Barron</t>
   </si>
   <si>
-    <t>7204530023Em</t>
+    <t>7204530023</t>
   </si>
   <si>
     <t>Rocio.303realestate@gmail.com</t>
@@ -926,7 +922,7 @@
     <t>Stu Galvis</t>
   </si>
   <si>
-    <t>720-440-4815</t>
+    <t>7204404815</t>
   </si>
   <si>
     <t>info@stugalvis.com</t>
@@ -935,7 +931,7 @@
     <t>Jay Yake</t>
   </si>
   <si>
-    <t>720-309-2280</t>
+    <t>7203092280</t>
   </si>
   <si>
     <t>jayduncanteam@gmail.com</t>
@@ -944,7 +940,7 @@
     <t>Bryan ”Bernard”</t>
   </si>
   <si>
-    <t>7203411569Em</t>
+    <t>7203411569</t>
   </si>
   <si>
     <t>bryan@goco-living.com</t>
@@ -953,7 +949,7 @@
     <t>Landon Stafford</t>
   </si>
   <si>
-    <t>7198227507Em</t>
+    <t>7198227507</t>
   </si>
   <si>
     <t>staffordl@kw.com</t>
@@ -962,7 +958,7 @@
     <t>Brenda Silerio</t>
   </si>
   <si>
-    <t>720-364-8664</t>
+    <t>7203648664</t>
   </si>
   <si>
     <t>Brenda@livelucent.com</t>
@@ -971,7 +967,7 @@
     <t>Kaleb Cobb</t>
   </si>
   <si>
-    <t>970-764-7955</t>
+    <t>9707647955</t>
   </si>
   <si>
     <t>kalebcobb@kw.com</t>
@@ -980,7 +976,7 @@
     <t>Jennifer Pollock</t>
   </si>
   <si>
-    <t>7204959404Em</t>
+    <t>7204959404</t>
   </si>
   <si>
     <t>Info@extraextrahomes.com</t>
@@ -989,7 +985,7 @@
     <t>Jamie Gaab</t>
   </si>
   <si>
-    <t>970-302-5414</t>
+    <t>9703025414</t>
   </si>
   <si>
     <t>jamiegaab@kw.com</t>
@@ -998,7 +994,7 @@
     <t>Pete Cook</t>
   </si>
   <si>
-    <t>7202991127Em</t>
+    <t>7202991127</t>
   </si>
   <si>
     <t>petewcook@gmail.com</t>
@@ -1010,7 +1006,7 @@
     <t>Christie Lysaught</t>
   </si>
   <si>
-    <t>3039137539Em</t>
+    <t>3039137539</t>
   </si>
   <si>
     <t>christie.lysaught@kw.com</t>
@@ -1019,7 +1015,7 @@
     <t>Cameron Rice</t>
   </si>
   <si>
-    <t>303-625-3355</t>
+    <t>3036253355</t>
   </si>
   <si>
     <t>cmrice@kw.com</t>
@@ -1028,7 +1024,7 @@
     <t>Jason Peck</t>
   </si>
   <si>
-    <t>7204466301Em</t>
+    <t>7204466301</t>
   </si>
   <si>
     <t>jasonpeck@kw.com</t>
@@ -1037,7 +1033,7 @@
     <t>Doug Gaeta</t>
   </si>
   <si>
-    <t>516-384-9707</t>
+    <t>5163849707</t>
   </si>
   <si>
     <t>douggaeta@gmail.com</t>
@@ -1046,7 +1042,7 @@
     <t>Austin Lucero</t>
   </si>
   <si>
-    <t>7208832955Em</t>
+    <t>7208832955</t>
   </si>
   <si>
     <t>austin.lucero@kw.com</t>
@@ -1055,7 +1051,7 @@
     <t>Andrea Carrigan</t>
   </si>
   <si>
-    <t>3036569361Em</t>
+    <t>3036569361</t>
   </si>
   <si>
     <t>andreacarrigan@kw.com</t>
@@ -1064,7 +1060,7 @@
     <t>Whitney Dean</t>
   </si>
   <si>
-    <t>7204472443Em</t>
+    <t>7204472443</t>
   </si>
   <si>
     <t>wdean@kw.com</t>
@@ -1073,7 +1069,7 @@
     <t>Becky Sweetwine</t>
   </si>
   <si>
-    <t>3037171024Em</t>
+    <t>3037171024</t>
   </si>
   <si>
     <t>sweetwine@kw.com</t>
@@ -1082,7 +1078,7 @@
     <t>Mayra Bernal</t>
   </si>
   <si>
-    <t>7209357618Em</t>
+    <t>7209357618</t>
   </si>
   <si>
     <t>mayrajbernal@gmail.com</t>
@@ -1091,7 +1087,7 @@
     <t>Anavel Ramirez</t>
   </si>
   <si>
-    <t>7202516716Em</t>
+    <t>7202516716</t>
   </si>
   <si>
     <t>anavel.ramirez@kw.com</t>
@@ -1100,7 +1096,7 @@
     <t>Drew Gibbs</t>
   </si>
   <si>
-    <t>3039003782Em</t>
+    <t>3039003782</t>
   </si>
   <si>
     <t>drewgibbs@herggroup.com</t>
@@ -1109,7 +1105,7 @@
     <t>Steven Di Lisio</t>
   </si>
   <si>
-    <t>7205306818Em</t>
+    <t>7205306818</t>
   </si>
   <si>
     <t>steven.dilisio@kw.com</t>
@@ -1118,7 +1114,7 @@
     <t>Diana Gonzalez</t>
   </si>
   <si>
-    <t>7208290913Em</t>
+    <t>7208290913</t>
   </si>
   <si>
     <t>dianagonzalezhomes@gmail.com</t>
@@ -1130,7 +1126,7 @@
     <t>Andrew Tobias</t>
   </si>
   <si>
-    <t>303-682-0559</t>
+    <t>3036820559</t>
   </si>
   <si>
     <t>atobias@kw.com</t>
@@ -1142,7 +1138,7 @@
     <t>Aldo Cindo</t>
   </si>
   <si>
-    <t>7204319331Em</t>
+    <t>7204319331</t>
   </si>
   <si>
     <t>aldocindo@kw.com</t>
@@ -1151,7 +1147,7 @@
     <t>Theresa Leider</t>
   </si>
   <si>
-    <t>303-960-6046</t>
+    <t>3039606046</t>
   </si>
   <si>
     <t>tleider@kw.com</t>
@@ -1160,7 +1156,7 @@
     <t>McAnthony Gyimah</t>
   </si>
   <si>
-    <t>7203829023Em</t>
+    <t>7203829023</t>
   </si>
   <si>
     <t>gyimah@kw.com</t>
@@ -1169,7 +1165,7 @@
     <t>Cristobal Reyes Mendoza</t>
   </si>
   <si>
-    <t>7203099697Em</t>
+    <t>7203099697</t>
   </si>
   <si>
     <t>creyes@kw.com</t>
@@ -1178,7 +1174,7 @@
     <t>Leandro Ybarra</t>
   </si>
   <si>
-    <t>720-339-0863</t>
+    <t>7203390863</t>
   </si>
   <si>
     <t>leandro@kw.com</t>
@@ -1187,7 +1183,7 @@
     <t>Michael Steward</t>
   </si>
   <si>
-    <t>720-819-6461</t>
+    <t>7208196461</t>
   </si>
   <si>
     <t>michael@bestonhomesteam.com</t>
@@ -1196,7 +1192,7 @@
     <t>Ruth A Cullis</t>
   </si>
   <si>
-    <t>7204469442Em</t>
+    <t>7204469442</t>
   </si>
   <si>
     <t>ruthcullis@kw.com</t>
@@ -1205,7 +1201,7 @@
     <t>Chris Sanders</t>
   </si>
   <si>
-    <t>303-241-0454</t>
+    <t>3032410454</t>
   </si>
   <si>
     <t>chris@sandersreo.com</t>
@@ -1214,7 +1210,7 @@
     <t>Cory Hindemit</t>
   </si>
   <si>
-    <t>7205044822Em</t>
+    <t>7205044822</t>
   </si>
   <si>
     <t>Cory@thedenvercollective.com</t>
@@ -1223,7 +1219,7 @@
     <t>Mario ‘A Lozano</t>
   </si>
   <si>
-    <t>3039196944Em</t>
+    <t>3039196944</t>
   </si>
   <si>
     <t>Sold@DenversAgent.com</t>
@@ -1232,7 +1228,7 @@
     <t>Nisha Sheth</t>
   </si>
   <si>
-    <t>9783352656Em</t>
+    <t>9783352656</t>
   </si>
   <si>
     <t>nishas@kw.com</t>
@@ -1241,7 +1237,7 @@
     <t>Gabriela Castaneda</t>
   </si>
   <si>
-    <t>7205031876Em</t>
+    <t>7205031876</t>
   </si>
   <si>
     <t>gaby@elevateave.com</t>
@@ -1250,7 +1246,7 @@
     <t>Sara Young</t>
   </si>
   <si>
-    <t>720-373-6971</t>
+    <t>7203736971</t>
   </si>
   <si>
     <t>sarayounghomes@kw.com</t>
@@ -1259,7 +1255,7 @@
     <t>Conrad ”Brian” Smith</t>
   </si>
   <si>
-    <t>3036475057Em</t>
+    <t>3036475057</t>
   </si>
   <si>
     <t>conrad@urbanprohomes.com</t>
@@ -1268,7 +1264,7 @@
     <t>Steve Trunnell</t>
   </si>
   <si>
-    <t>3036188151Em</t>
+    <t>3036188151</t>
   </si>
   <si>
     <t>steve@sellwithtrunnell.com</t>
@@ -1280,7 +1276,7 @@
     <t>Eric Barrios</t>
   </si>
   <si>
-    <t>3038033701Em</t>
+    <t>3038033701</t>
   </si>
   <si>
     <t>ebarrios@kw.com</t>
@@ -1289,7 +1285,7 @@
     <t>Gilberto Vazquez</t>
   </si>
   <si>
-    <t>303-359-1761</t>
+    <t>3033591761</t>
   </si>
   <si>
     <t>HomesfromGil@gmail.com</t>
@@ -1298,7 +1294,7 @@
     <t>Greg Miller</t>
   </si>
   <si>
-    <t>7208497061Em</t>
+    <t>7208497061</t>
   </si>
   <si>
     <t>greg-miller@kw.com</t>
@@ -1307,7 +1303,7 @@
     <t>Kelly McPherson</t>
   </si>
   <si>
-    <t>7203279991Em</t>
+    <t>7203279991</t>
   </si>
   <si>
     <t>kellyproperties@kw.com</t>
@@ -1316,7 +1312,7 @@
     <t>Kory Strassberg</t>
   </si>
   <si>
-    <t>813-695-7605</t>
+    <t>8136957605</t>
   </si>
   <si>
     <t>kstrassberg@kw.com</t>
@@ -1325,7 +1321,7 @@
     <t>Lindsay Moore</t>
   </si>
   <si>
-    <t>8432708781Em</t>
+    <t>8432708781</t>
   </si>
   <si>
     <t>ldmoore@kw.com</t>
@@ -1334,7 +1330,7 @@
     <t>Cetonia Roland</t>
   </si>
   <si>
-    <t>303-475-4083</t>
+    <t>3034754083</t>
   </si>
   <si>
     <t>toniroland@kw.com</t>
@@ -1343,7 +1339,7 @@
     <t>Haseret Cital</t>
   </si>
   <si>
-    <t>7204227866Em</t>
+    <t>7204227866</t>
   </si>
   <si>
     <t>hascital@dnvrlivn.com</t>
@@ -1352,7 +1348,7 @@
     <t>Arlene Marquez</t>
   </si>
   <si>
-    <t>7204740292Em</t>
+    <t>7204740292</t>
   </si>
   <si>
     <t>amarlenemarquez@gmail.com</t>
@@ -1361,7 +1357,7 @@
     <t>Chris Barry</t>
   </si>
   <si>
-    <t>9789739606Em</t>
+    <t>9789739606</t>
   </si>
   <si>
     <t>chris.barry@kw.com</t>
@@ -1370,7 +1366,7 @@
     <t>Ryan Whittaker</t>
   </si>
   <si>
-    <t>970-708-7451</t>
+    <t>9707087451</t>
   </si>
   <si>
     <t>ryanw82@kw.com</t>
@@ -1379,7 +1375,7 @@
     <t>Mark Baier</t>
   </si>
   <si>
-    <t>3033598090Em</t>
+    <t>3033598090</t>
   </si>
   <si>
     <t>markbaier@kw.com</t>
@@ -1388,7 +1384,7 @@
     <t>Nicole Herrera</t>
   </si>
   <si>
-    <t>720-207-8124</t>
+    <t>7202078124</t>
   </si>
   <si>
     <t>nicoleherrera@kw.com</t>
@@ -1397,7 +1393,7 @@
     <t>Brian Greene</t>
   </si>
   <si>
-    <t>7203526565Em</t>
+    <t>7203526565</t>
   </si>
   <si>
     <t>BrianGreene@HergGroup.com</t>
@@ -1406,7 +1402,7 @@
     <t>Jose Bonilla</t>
   </si>
   <si>
-    <t>7202128889Em</t>
+    <t>7202128889</t>
   </si>
   <si>
     <t>jbonilla@elevateave.com</t>
@@ -1415,7 +1411,7 @@
     <t>Mike Willey</t>
   </si>
   <si>
-    <t>720-750-1862</t>
+    <t>7207501862</t>
   </si>
   <si>
     <t>mewilley@kw.com</t>
@@ -1424,7 +1420,7 @@
     <t>Amy Campbell</t>
   </si>
   <si>
-    <t>7204431149Em</t>
+    <t>7204431149</t>
   </si>
   <si>
     <t>a.campbell@kw.com</t>
@@ -1433,7 +1429,7 @@
     <t>Sharon Solove</t>
   </si>
   <si>
-    <t>303-507-2616</t>
+    <t>3035072616</t>
   </si>
   <si>
     <t>solovehelps@gmail.com</t>
@@ -1442,7 +1438,7 @@
     <t>Deanne Martinez</t>
   </si>
   <si>
-    <t>3036387682Em</t>
+    <t>3036387682</t>
   </si>
   <si>
     <t>deannemartinez11@gmail.com</t>
@@ -1451,7 +1447,7 @@
     <t>Cecilia Gomez</t>
   </si>
   <si>
-    <t>720.629.9976</t>
+    <t>7206299976</t>
   </si>
   <si>
     <t>csgomez@kw.com</t>
@@ -1460,7 +1456,7 @@
     <t>Carol Romero</t>
   </si>
   <si>
-    <t>7206283929Em</t>
+    <t>7206283929</t>
   </si>
   <si>
     <t>carolsoldit@msn.com</t>
@@ -1469,7 +1465,7 @@
     <t>Scott Schaefer</t>
   </si>
   <si>
-    <t>9704666969Em</t>
+    <t>9704666969</t>
   </si>
   <si>
     <t>scottschaefer@kw.com</t>
@@ -1478,7 +1474,7 @@
     <t>Ginger Soffes</t>
   </si>
   <si>
-    <t>719-424-6949</t>
+    <t>7194246949</t>
   </si>
   <si>
     <t>gingersoffes@kw.com</t>
@@ -1487,7 +1483,7 @@
     <t>Stacey Skelton</t>
   </si>
   <si>
-    <t>3035879830Em</t>
+    <t>3035879830</t>
   </si>
   <si>
     <t>staceyskeltonkw@gmail.com</t>
@@ -1496,7 +1492,7 @@
     <t>Divine Davis</t>
   </si>
   <si>
-    <t>3035050536Em</t>
+    <t>3035050536</t>
   </si>
   <si>
     <t>divinedavis06@gmail.com</t>
@@ -1505,7 +1501,7 @@
     <t>Stephanie Zingano Fortes Aguas</t>
   </si>
   <si>
-    <t>720-364-0055</t>
+    <t>7203640055</t>
   </si>
   <si>
     <t>sfortesaguas@kw.com</t>
@@ -1514,7 +1510,7 @@
     <t>Carianne Colwell</t>
   </si>
   <si>
-    <t>202-627-9381</t>
+    <t>2026279381</t>
   </si>
   <si>
     <t>cv.colwell@kw.com</t>
@@ -1523,7 +1519,7 @@
     <t>Hussein Garcia</t>
   </si>
   <si>
-    <t>3039082788Em</t>
+    <t>3039082788</t>
   </si>
   <si>
     <t>hussein@platinumteamre.com</t>
@@ -1532,7 +1528,7 @@
     <t>Joanna Lamb</t>
   </si>
   <si>
-    <t>720-295-3577</t>
+    <t>7202953577</t>
   </si>
   <si>
     <t>joanna.lamb@kw.com</t>
@@ -1541,7 +1537,7 @@
     <t>Gregory Shea</t>
   </si>
   <si>
-    <t>5132076934Em</t>
+    <t>5132076934</t>
   </si>
   <si>
     <t>gshea@kw.com</t>
@@ -1550,7 +1546,7 @@
     <t>Richeon Taylor</t>
   </si>
   <si>
-    <t>6786771289Em</t>
+    <t>6786771289</t>
   </si>
   <si>
     <t>ricci.taylor@kw.com</t>
@@ -1559,7 +1555,7 @@
     <t>Joseph Mooney</t>
   </si>
   <si>
-    <t>3202602657Em</t>
+    <t>3202602657</t>
   </si>
   <si>
     <t>josephmooney@herggroup.com</t>
@@ -1568,7 +1564,7 @@
     <t>Titus King</t>
   </si>
   <si>
-    <t>3039103020Em</t>
+    <t>3039103020</t>
   </si>
   <si>
     <t>Titus@TitusKingRE.com</t>
@@ -1577,7 +1573,7 @@
     <t>Colby Clark</t>
   </si>
   <si>
-    <t>7378025394Em</t>
+    <t>7378025394</t>
   </si>
   <si>
     <t>colbykclark@kw.com</t>
@@ -1589,7 +1585,7 @@
     <t>Froylan Vasquez</t>
   </si>
   <si>
-    <t>303-898-5997</t>
+    <t>3038985997</t>
   </si>
   <si>
     <t>fvasquez@kw.com</t>
@@ -1598,7 +1594,7 @@
     <t>Meghann Rettelle</t>
   </si>
   <si>
-    <t>720-862-7676</t>
+    <t>7208627676</t>
   </si>
   <si>
     <t>mrettelle@kw.com</t>
@@ -1607,7 +1603,7 @@
     <t>Jessica Preston</t>
   </si>
   <si>
-    <t>720.260.4422</t>
+    <t>7202604422</t>
   </si>
   <si>
     <t>jessica@brucehomesco.com</t>
@@ -1616,7 +1612,7 @@
     <t>Justin Ngo</t>
   </si>
   <si>
-    <t>720-937-3889</t>
+    <t>7209373889</t>
   </si>
   <si>
     <t>justin.ngo@kw.com</t>
@@ -1625,7 +1621,7 @@
     <t>Christina Poole</t>
   </si>
   <si>
-    <t>714-299-5700</t>
+    <t>7142995700</t>
   </si>
   <si>
     <t>christinapoole@kw.com</t>
@@ -1634,7 +1630,7 @@
     <t>Chris Higbee</t>
   </si>
   <si>
-    <t>720-431-3224</t>
+    <t>7204313224</t>
   </si>
   <si>
     <t>chigbee2@gmail.com</t>
@@ -1643,7 +1639,7 @@
     <t>Andrew Bailey Brooks</t>
   </si>
   <si>
-    <t>7209087063Em</t>
+    <t>7209087063</t>
   </si>
   <si>
     <t>andrewbaileybrooks@kw.com</t>
@@ -1652,7 +1648,7 @@
     <t>Helen R Robinson</t>
   </si>
   <si>
-    <t>719.966.7266</t>
+    <t>7199667266</t>
   </si>
   <si>
     <t>misshelen@kw.com</t>
@@ -1661,7 +1657,7 @@
     <t>Hai Nguyen</t>
   </si>
   <si>
-    <t>720-238-2699</t>
+    <t>7202382699</t>
   </si>
   <si>
     <t>hai.broker1@gmail.com</t>
@@ -1670,7 +1666,7 @@
     <t>Barb Letcher</t>
   </si>
   <si>
-    <t>3038297587Em</t>
+    <t>3038297587</t>
   </si>
   <si>
     <t>bletchersells@gmail.com</t>
@@ -1679,7 +1675,7 @@
     <t>Sandi ‘Osoro’</t>
   </si>
   <si>
-    <t>7202179689Em</t>
+    <t>7202179689</t>
   </si>
   <si>
     <t>SandiOSells@gmail.com</t>
@@ -1688,7 +1684,7 @@
     <t>Mike Bruce</t>
   </si>
   <si>
-    <t>7207710495Em</t>
+    <t>7207710495</t>
   </si>
   <si>
     <t>Mike@BruceHomesCO.com</t>
@@ -1697,7 +1693,7 @@
     <t>Crystal Smith</t>
   </si>
   <si>
-    <t>720-594-5005</t>
+    <t>7205945005</t>
   </si>
   <si>
     <t>crystal@urbanprohomes.com</t>
@@ -1706,7 +1702,7 @@
     <t>Sydney DeAtley</t>
   </si>
   <si>
-    <t>5097697257Em</t>
+    <t>5097697257</t>
   </si>
   <si>
     <t>sydney.deatley@kw.com</t>
@@ -1715,7 +1711,7 @@
     <t>Ryan Heckenberg</t>
   </si>
   <si>
-    <t>303-472-2681</t>
+    <t>3034722681</t>
   </si>
   <si>
     <t>Ryan@HGDenver.com</t>
@@ -1724,7 +1720,7 @@
     <t>Michelle Thomas</t>
   </si>
   <si>
-    <t>3038680011Em</t>
+    <t>3038680011</t>
   </si>
   <si>
     <t>Michelle@NXTLevelAgency.com</t>
@@ -1733,7 +1729,7 @@
     <t>Heather Harrington</t>
   </si>
   <si>
-    <t>719-210-5557</t>
+    <t>7192105557</t>
   </si>
   <si>
     <t>hlorince@gmail.com</t>
@@ -1742,7 +1738,7 @@
     <t>Iris Rodriguez</t>
   </si>
   <si>
-    <t>720-551-2345</t>
+    <t>7205512345</t>
   </si>
   <si>
     <t>irisjrodriguez@kw.com</t>
@@ -1751,7 +1747,7 @@
     <t>Fabian Madrigal Garcia</t>
   </si>
   <si>
-    <t>7209757660Em</t>
+    <t>7209757660</t>
   </si>
   <si>
     <t>Fabian@dnvrlivn.com</t>
@@ -1760,7 +1756,7 @@
     <t>Zonia Alvarado</t>
   </si>
   <si>
-    <t>970-308-2243</t>
+    <t>9703082243</t>
   </si>
   <si>
     <t>zalvarado@kw.com</t>
@@ -1772,7 +1768,7 @@
     <t>Ryan Sedgwick</t>
   </si>
   <si>
-    <t>7193348861Em</t>
+    <t>7193348861</t>
   </si>
   <si>
     <t>rsedgwick@kw.com</t>
@@ -1781,7 +1777,7 @@
     <t>Heather Pierce</t>
   </si>
   <si>
-    <t>7203620082Em</t>
+    <t>7203620082</t>
   </si>
   <si>
     <t>hpierce@kw.com</t>
@@ -1790,7 +1786,7 @@
     <t>Ruben Mancha-Bayona</t>
   </si>
   <si>
-    <t>7204538370Em</t>
+    <t>7204538370</t>
   </si>
   <si>
     <t>rubenmb@kw.com</t>
@@ -1799,7 +1795,7 @@
     <t>Leticia Herrera</t>
   </si>
   <si>
-    <t>720-339-1178</t>
+    <t>7203391178</t>
   </si>
   <si>
     <t>leticia@nxtlevelagency.com</t>
@@ -1808,7 +1804,7 @@
     <t>Rebecca Atencio</t>
   </si>
   <si>
-    <t>7209366927Em</t>
+    <t>7209366927</t>
   </si>
   <si>
     <t>rebecca.atencio@kw.com</t>
@@ -1817,7 +1813,7 @@
     <t>Lyndsey Palik</t>
   </si>
   <si>
-    <t>3035643514Em</t>
+    <t>3035643514</t>
   </si>
   <si>
     <t>lyndpalik@kw.com</t>
@@ -1826,7 +1822,7 @@
     <t>Dae Jung Trejo</t>
   </si>
   <si>
-    <t>2293399224Em</t>
+    <t>2293399224</t>
   </si>
   <si>
     <t>Daehanjungtrejo@gmail.com</t>
@@ -1835,7 +1831,7 @@
     <t>Joseph Townes</t>
   </si>
   <si>
-    <t>7205500062Em</t>
+    <t>7205500062</t>
   </si>
   <si>
     <t>josephtownes@kw.com</t>
@@ -1844,7 +1840,7 @@
     <t>Patty Hanley</t>
   </si>
   <si>
-    <t>720-515-7079</t>
+    <t>7205157079</t>
   </si>
   <si>
     <t>phanleyrealestate@gmail.com</t>
@@ -1853,7 +1849,7 @@
     <t>Jaimee Balderas</t>
   </si>
   <si>
-    <t>7202759239Em</t>
+    <t>7202759239</t>
   </si>
   <si>
     <t>jaimee_balderas@KW.com</t>
@@ -1862,7 +1858,7 @@
     <t>Charles Smith</t>
   </si>
   <si>
-    <t>3037259018Em</t>
+    <t>3037259018</t>
   </si>
   <si>
     <t>casmith@kw.com</t>
@@ -1871,7 +1867,7 @@
     <t>Cydnie Vasquez</t>
   </si>
   <si>
-    <t>720-648-6618</t>
+    <t>7206486618</t>
   </si>
   <si>
     <t>cydvasquez@gmail.com</t>
@@ -1880,7 +1876,7 @@
     <t>Steph Swartzlander</t>
   </si>
   <si>
-    <t>858.449.8993</t>
+    <t>8584498993</t>
   </si>
   <si>
     <t>steph.swartzlander@kw.com</t>
@@ -1892,7 +1888,7 @@
     <t>Carlos Banuelos</t>
   </si>
   <si>
-    <t>3039605154Em</t>
+    <t>3039605154</t>
   </si>
   <si>
     <t>carlos@dnvrlivn.com</t>
@@ -1901,7 +1897,7 @@
     <t>Frederick Kaucher</t>
   </si>
   <si>
-    <t>8643990787Em</t>
+    <t>8643990787</t>
   </si>
   <si>
     <t>rick.kaucher@kw.com</t>
@@ -1910,7 +1906,7 @@
     <t>Luis Vargas</t>
   </si>
   <si>
-    <t>720-235-8471</t>
+    <t>7202358471</t>
   </si>
   <si>
     <t>thesigalagroup@kw.com</t>
@@ -1919,7 +1915,7 @@
     <t>Angie Knight</t>
   </si>
   <si>
-    <t>3038104373Em</t>
+    <t>3038104373</t>
   </si>
   <si>
     <t>angie@faginwillis.com</t>
@@ -1928,7 +1924,7 @@
     <t>David Black</t>
   </si>
   <si>
-    <t>7206267474Em</t>
+    <t>7206267474</t>
   </si>
   <si>
     <t>David@ManeHomeGroup.com</t>
@@ -1937,7 +1933,7 @@
     <t>Dawn Soper</t>
   </si>
   <si>
-    <t>8598169574Em</t>
+    <t>8598169574</t>
   </si>
   <si>
     <t>dsoper@kw.com</t>
@@ -1949,7 +1945,7 @@
     <t>Kori Greene</t>
   </si>
   <si>
-    <t>303-523-6241</t>
+    <t>3035236241</t>
   </si>
   <si>
     <t>kori@milehighcollective.com</t>
@@ -1958,7 +1954,7 @@
     <t>Jordan Ashton</t>
   </si>
   <si>
-    <t>3039901379Em</t>
+    <t>3039901379</t>
   </si>
   <si>
     <t>jashton@kw.com</t>
@@ -1967,7 +1963,7 @@
     <t>Stephanie Harris</t>
   </si>
   <si>
-    <t>720-388-2345</t>
+    <t>7203882345</t>
   </si>
   <si>
     <t>harris.stephanie@kw.com</t>
@@ -1976,7 +1972,7 @@
     <t>Kelsey Shultz</t>
   </si>
   <si>
-    <t>314-560-4291</t>
+    <t>3145604291</t>
   </si>
   <si>
     <t>kelseyshultz@kw.com</t>
@@ -1985,7 +1981,7 @@
     <t>McKenzie Moore</t>
   </si>
   <si>
-    <t>3605609021Em</t>
+    <t>3605609021</t>
   </si>
   <si>
     <t>kenzie@denverhighriseliving.com</t>
@@ -1994,7 +1990,7 @@
     <t>Patricia Olivo Tellez</t>
   </si>
   <si>
-    <t>9709019556Em</t>
+    <t>9709019556</t>
   </si>
   <si>
     <t>patricia.olivotellez@kw.com</t>
@@ -2003,7 +1999,7 @@
     <t>Oakleigh Thorne</t>
   </si>
   <si>
-    <t>8472070821Em</t>
+    <t>8472070821</t>
   </si>
   <si>
     <t>oak.thorne@kw.com</t>
@@ -2012,7 +2008,7 @@
     <t>Rodney Duran Jr</t>
   </si>
   <si>
-    <t>7203761305Em</t>
+    <t>7203761305</t>
   </si>
   <si>
     <t>rodneyduran@kw.com</t>
@@ -2021,7 +2017,7 @@
     <t>Ryan Fagin</t>
   </si>
   <si>
-    <t>517-643-5498</t>
+    <t>5176435498</t>
   </si>
   <si>
     <t>ryan@faginwillis.com</t>
@@ -2030,7 +2026,7 @@
     <t>Laura Leathers</t>
   </si>
   <si>
-    <t>720-840-6841</t>
+    <t>7208406841</t>
   </si>
   <si>
     <t>outwardinyoga@gmail.com</t>
@@ -2039,7 +2035,7 @@
     <t>Connor O’Halloran</t>
   </si>
   <si>
-    <t>3478844178Em</t>
+    <t>3478844178</t>
   </si>
   <si>
     <t>connor.ohalloran@kw.com</t>
@@ -2048,7 +2044,7 @@
     <t>Mason Hayutin</t>
   </si>
   <si>
-    <t>3033316779Em</t>
+    <t>3033316779</t>
   </si>
   <si>
     <t>masonhayutin@kwrealty.com</t>
@@ -2057,7 +2053,7 @@
     <t>Shallon Daniel</t>
   </si>
   <si>
-    <t>7202563141Em</t>
+    <t>7202563141</t>
   </si>
   <si>
     <t>shallondaniel@Kw.com</t>
@@ -2066,7 +2062,7 @@
     <t>Jason Capalongo</t>
   </si>
   <si>
-    <t>3033788847Em</t>
+    <t>3033788847</t>
   </si>
   <si>
     <t>jcapalongo@kw.com</t>
@@ -2075,7 +2071,7 @@
     <t>Rachel Robledo</t>
   </si>
   <si>
-    <t>3037040774Em</t>
+    <t>3037040774</t>
   </si>
   <si>
     <t>Klrw1097@kw.com</t>
@@ -2084,7 +2080,7 @@
     <t>Britt Dolifka</t>
   </si>
   <si>
-    <t>7209846720Em</t>
+    <t>7209846720</t>
   </si>
   <si>
     <t>klrw273@kw.com</t>
@@ -2093,7 +2089,7 @@
     <t>Christine Ralston</t>
   </si>
   <si>
-    <t>3032630169Em</t>
+    <t>3032630169</t>
   </si>
   <si>
     <t>christineralston@kw.com</t>
@@ -2102,7 +2098,7 @@
     <t>Adrian Gandarilla</t>
   </si>
   <si>
-    <t>303-946-7506</t>
+    <t>3039467506</t>
   </si>
   <si>
     <t>adriangandarilla@kw.com</t>
@@ -2111,7 +2107,7 @@
     <t>Kenneth Villanueba</t>
   </si>
   <si>
-    <t>3036193285Em</t>
+    <t>3036193285</t>
   </si>
   <si>
     <t>kennyvillanueba@kw.com</t>
@@ -2120,7 +2116,7 @@
     <t>Jenn Cosio</t>
   </si>
   <si>
-    <t>3037758585Em</t>
+    <t>3037758585</t>
   </si>
   <si>
     <t>jcosio@kw.com</t>
@@ -2129,7 +2125,7 @@
     <t>Aaron Villarreal</t>
   </si>
   <si>
-    <t>7204574144Em</t>
+    <t>7204574144</t>
   </si>
   <si>
     <t>aaron@poplarhomes.co</t>
@@ -2141,7 +2137,7 @@
     <t>Jose Ochoa</t>
   </si>
   <si>
-    <t>7203355673Em</t>
+    <t>7203355673</t>
   </si>
   <si>
     <t>Homes@JoseOchoa.Pro</t>
@@ -2150,7 +2146,7 @@
     <t>Jared Frost</t>
   </si>
   <si>
-    <t>7205262583Em</t>
+    <t>7205262583</t>
   </si>
   <si>
     <t>admin@bluepebblere.com</t>
@@ -2159,7 +2155,7 @@
     <t>Annie Tatro</t>
   </si>
   <si>
-    <t>7204003093Em</t>
+    <t>7204003093</t>
   </si>
   <si>
     <t>annietatro@kw.com</t>
@@ -2168,7 +2164,7 @@
     <t>Scott Hanshaw</t>
   </si>
   <si>
-    <t>303-908-0525</t>
+    <t>3039080525</t>
   </si>
   <si>
     <t>s1hanshaw@kw.com</t>
@@ -2177,7 +2173,7 @@
     <t>Deysi Neidig</t>
   </si>
   <si>
-    <t>3038837517Em</t>
+    <t>3038837517</t>
   </si>
   <si>
     <t>d.neidig@kw.com</t>
@@ -2186,7 +2182,7 @@
     <t>Matthew Gallegos</t>
   </si>
   <si>
-    <t>9205443243Em</t>
+    <t>9205443243</t>
   </si>
   <si>
     <t>mgallegos@bluepebblere.com</t>
@@ -2195,7 +2191,7 @@
     <t>Maureen Shea</t>
   </si>
   <si>
-    <t>3039068182Em</t>
+    <t>3039068182</t>
   </si>
   <si>
     <t>maureen.shea@kw.com</t>
@@ -2204,7 +2200,7 @@
     <t>Peter Leider</t>
   </si>
   <si>
-    <t>303-974-8501</t>
+    <t>3039748501</t>
   </si>
   <si>
     <t>pleider@drenllc.com</t>
@@ -2213,7 +2209,7 @@
     <t>Brian Fisher</t>
   </si>
   <si>
-    <t>720-988-5979</t>
+    <t>7209885979</t>
   </si>
   <si>
     <t>brianfisherhomes@gmail.com</t>
@@ -2222,7 +2218,7 @@
     <t>Brittany ‘Heckenberg’</t>
   </si>
   <si>
-    <t>3038772641Em</t>
+    <t>3038772641</t>
   </si>
   <si>
     <t>Brittany@HGDenver.com</t>
@@ -2231,7 +2227,7 @@
     <t>Katie Card</t>
   </si>
   <si>
-    <t>720-935-1971</t>
+    <t>7209351971</t>
   </si>
   <si>
     <t>katiecard@kw.com</t>
@@ -2240,7 +2236,7 @@
     <t>Kinsey Auckly</t>
   </si>
   <si>
-    <t>7209360714Em</t>
+    <t>7209360714</t>
   </si>
   <si>
     <t>kinsey@kw.com</t>
@@ -2249,7 +2245,7 @@
     <t>Allison ‘Arnold’Johnson</t>
   </si>
   <si>
-    <t>3032040037Em</t>
+    <t>3032040037</t>
   </si>
   <si>
     <t>allison.davisandco@kw.com</t>
@@ -2258,7 +2254,7 @@
     <t>Elizabeth Ellis</t>
   </si>
   <si>
-    <t>3039058690Em</t>
+    <t>3039058690</t>
   </si>
   <si>
     <t>elizabeth.ellis23@gmail.com</t>
@@ -2267,7 +2263,7 @@
     <t>David Logan</t>
   </si>
   <si>
-    <t>7196883607Em</t>
+    <t>7196883607</t>
   </si>
   <si>
     <t>davidmlogan86@kw.com</t>
@@ -2276,7 +2272,7 @@
     <t>Fabian Tarango</t>
   </si>
   <si>
-    <t>7203237019Em</t>
+    <t>7203237019</t>
   </si>
   <si>
     <t>Myteam@highcaphomes.com</t>
@@ -2285,7 +2281,7 @@
     <t>Ruben Helo</t>
   </si>
   <si>
-    <t>7204908769Em</t>
+    <t>7204908769</t>
   </si>
   <si>
     <t>rhelo@kw.com</t>
@@ -2294,7 +2290,7 @@
     <t>Piper Billups</t>
   </si>
   <si>
-    <t>303-856-8933</t>
+    <t>3038568933</t>
   </si>
   <si>
     <t>pbillups@kw.com</t>
@@ -2303,7 +2299,7 @@
     <t>Chantel Sandoval</t>
   </si>
   <si>
-    <t>970-216-4654</t>
+    <t>9702164654</t>
   </si>
   <si>
     <t>chantelsandoval@kw.com</t>
@@ -2312,7 +2308,7 @@
     <t>Dina Perez</t>
   </si>
   <si>
-    <t>303-731-7644</t>
+    <t>3037317644</t>
   </si>
   <si>
     <t>dina@coloradoempire.com</t>
@@ -2321,7 +2317,7 @@
     <t>Eric Hernandez Portillo</t>
   </si>
   <si>
-    <t>3037208275Em</t>
+    <t>3037208275</t>
   </si>
   <si>
     <t>erichp@kw.com</t>
@@ -2330,7 +2326,7 @@
     <t>Molly Zeman</t>
   </si>
   <si>
-    <t>7202202692Em</t>
+    <t>7202202692</t>
   </si>
   <si>
     <t>mzeman@kw.com</t>
@@ -2339,7 +2335,7 @@
     <t>David Yost</t>
   </si>
   <si>
-    <t>7209174105Em</t>
+    <t>7209174105</t>
   </si>
   <si>
     <t>davidyost@kw.com</t>
@@ -2348,7 +2344,7 @@
     <t>Zack Drake</t>
   </si>
   <si>
-    <t>3038770095Em</t>
+    <t>3038770095</t>
   </si>
   <si>
     <t>zachdrake@kw.com</t>
@@ -2357,7 +2353,7 @@
     <t>Venessa Jones</t>
   </si>
   <si>
-    <t>7203715511Em</t>
+    <t>7203715511</t>
   </si>
   <si>
     <t>venessajones@kw.com</t>
@@ -2366,7 +2362,7 @@
     <t>Zaidy Rae Charron</t>
   </si>
   <si>
-    <t>303-809-7023</t>
+    <t>3038097023</t>
   </si>
   <si>
     <t>zaidycharron@gmail.com</t>
@@ -2375,7 +2371,7 @@
     <t>Mark Cantrell</t>
   </si>
   <si>
-    <t>9153835349Em</t>
+    <t>9153835349</t>
   </si>
   <si>
     <t>mark.cantrell@kw.com</t>
@@ -2384,7 +2380,7 @@
     <t>Adam Friedberg</t>
   </si>
   <si>
-    <t>303-223-7435</t>
+    <t>3032237435</t>
   </si>
   <si>
     <t>adamfriedberg@kw.com</t>
@@ -2393,7 +2389,7 @@
     <t>Nicholas Cervantes</t>
   </si>
   <si>
-    <t>260-602-8345</t>
+    <t>2606028345</t>
   </si>
   <si>
     <t>ncervantesrealty@gmail.com</t>
@@ -2402,7 +2398,7 @@
     <t>Karen Porras</t>
   </si>
   <si>
-    <t>303-884-5419</t>
+    <t>3038845419</t>
   </si>
   <si>
     <t>karen@faginwillis.com</t>
@@ -2411,7 +2407,7 @@
     <t>Laura Fritz</t>
   </si>
   <si>
-    <t>720-299-6024</t>
+    <t>7202996024</t>
   </si>
   <si>
     <t>laurafritz@kw.com</t>
@@ -2420,7 +2416,7 @@
     <t>Bo Peiffer</t>
   </si>
   <si>
-    <t>7202200657Em</t>
+    <t>7202200657</t>
   </si>
   <si>
     <t>bo@denverhighriseliving.com</t>
@@ -2432,7 +2428,7 @@
     <t>Walter Lee</t>
   </si>
   <si>
-    <t>7202631005Em</t>
+    <t>7202631005</t>
   </si>
   <si>
     <t>walterlee202@msn.com</t>
@@ -2441,7 +2437,7 @@
     <t>Brandon Beston</t>
   </si>
   <si>
-    <t>7203237807Em</t>
+    <t>7203237807</t>
   </si>
   <si>
     <t>info@bestonhomesteam.com</t>
@@ -2450,7 +2446,7 @@
     <t>Kina Magda</t>
   </si>
   <si>
-    <t>7205059043Em</t>
+    <t>7205059043</t>
   </si>
   <si>
     <t>kinamagda@kw.com</t>
@@ -2459,7 +2455,7 @@
     <t>Chrissy Herrera</t>
   </si>
   <si>
-    <t>3033566431Em</t>
+    <t>3033566431</t>
   </si>
   <si>
     <t>chrissy.herrera@kw.com</t>
@@ -2468,7 +2464,7 @@
     <t>Carlos Carcamo</t>
   </si>
   <si>
-    <t>7207554343Em</t>
+    <t>7207554343</t>
   </si>
   <si>
     <t>carloscarcamo@kw.com</t>
@@ -2477,7 +2473,7 @@
     <t>Sean Moudry</t>
   </si>
   <si>
-    <t>3035072268Em</t>
+    <t>3035072268</t>
   </si>
   <si>
     <t>seanmoudry@gmail.com</t>
@@ -2486,7 +2482,7 @@
     <t>Zac Strauss</t>
   </si>
   <si>
-    <t>4342423381Em</t>
+    <t>4342423381</t>
   </si>
   <si>
     <t>zacstrauss@kw.com</t>
@@ -2495,7 +2491,7 @@
     <t>Carlos Escobar</t>
   </si>
   <si>
-    <t>7209795459Em</t>
+    <t>7209795459</t>
   </si>
   <si>
     <t>carlos@escobarproperties.us</t>
@@ -2504,7 +2500,7 @@
     <t>Heather Moudry</t>
   </si>
   <si>
-    <t>3035795112Em</t>
+    <t>3035795112</t>
   </si>
   <si>
     <t>heather.moudry@kw.com</t>
@@ -2513,7 +2509,7 @@
     <t>Nilu Khadka</t>
   </si>
   <si>
-    <t>7206284030Em</t>
+    <t>7206284030</t>
   </si>
   <si>
     <t>NiluBuysHouses@gmail.com</t>
@@ -2522,7 +2518,7 @@
     <t>Armando Garcia</t>
   </si>
   <si>
-    <t>7202343311Em</t>
+    <t>7202343311</t>
   </si>
   <si>
     <t>infiniteinvestmentsolutions7@gmail.com</t>
@@ -2531,7 +2527,7 @@
     <t>Laura Green</t>
   </si>
   <si>
-    <t>3037261613Em</t>
+    <t>3037261613</t>
   </si>
   <si>
     <t>granola@kw.com</t>
@@ -2540,7 +2536,7 @@
     <t>Melody Garcia</t>
   </si>
   <si>
-    <t>720-620-1592</t>
+    <t>7206201592</t>
   </si>
   <si>
     <t>melodygarcia@kw.com</t>
@@ -2549,7 +2545,7 @@
     <t>Adriana Ramirez</t>
   </si>
   <si>
-    <t>7207566469Em</t>
+    <t>7207566469</t>
   </si>
   <si>
     <t>adriana@dnvrlivn.com</t>
@@ -2558,7 +2554,7 @@
     <t>Brittney Baskall</t>
   </si>
   <si>
-    <t>3035649936Em</t>
+    <t>3035649936</t>
   </si>
   <si>
     <t>brittneybaskall.re@gmail.com</t>
@@ -2567,7 +2563,7 @@
     <t>Trisha Wilson</t>
   </si>
   <si>
-    <t>7205690897Em</t>
+    <t>7205690897</t>
   </si>
   <si>
     <t>trishawilson@kw.com</t>
@@ -2576,7 +2572,7 @@
     <t>Tyler Vos</t>
   </si>
   <si>
-    <t>3037485112Em</t>
+    <t>3037485112</t>
   </si>
   <si>
     <t>tvos@bluepebblere.com</t>
@@ -2585,7 +2581,7 @@
     <t>Robert Gallegos</t>
   </si>
   <si>
-    <t>7202319220Em</t>
+    <t>7202319220</t>
   </si>
   <si>
     <t>Robert@elevateave.com</t>
@@ -2594,7 +2590,7 @@
     <t>Karen Terrazas</t>
   </si>
   <si>
-    <t>7209878824Em</t>
+    <t>7209878824</t>
   </si>
   <si>
     <t>karenhomes@kw.com</t>
@@ -2603,7 +2599,7 @@
     <t>Omar Jr Hernandez</t>
   </si>
   <si>
-    <t>3035981639Em</t>
+    <t>3035981639</t>
   </si>
   <si>
     <t>OJunior@LiveLucent.com</t>
@@ -2612,7 +2608,7 @@
     <t>Arthur Vasquez</t>
   </si>
   <si>
-    <t>303-523-7700</t>
+    <t>3035237700</t>
   </si>
   <si>
     <t>artq@q.com</t>
@@ -2621,7 +2617,7 @@
     <t>Lee Busse</t>
   </si>
   <si>
-    <t>720-413-7313</t>
+    <t>7204137313</t>
   </si>
   <si>
     <t>leebproperties@gmail.com</t>
@@ -2630,7 +2626,7 @@
     <t>Omar Hernandez</t>
   </si>
   <si>
-    <t>3039478204Em</t>
+    <t>3039478204</t>
   </si>
   <si>
     <t>Omar@LiveLucent.com</t>
@@ -2639,7 +2635,7 @@
     <t>Vincent Lopez</t>
   </si>
   <si>
-    <t>3036679315Em</t>
+    <t>3036679315</t>
   </si>
   <si>
     <t>vincent.lopez@kw.com</t>
@@ -2648,7 +2644,7 @@
     <t>Katie Walsh</t>
   </si>
   <si>
-    <t>720-878-1769</t>
+    <t>7208781769</t>
   </si>
   <si>
     <t>ktwalsh@kw.com</t>
@@ -2657,7 +2653,7 @@
     <t>Ivan Salazar</t>
   </si>
   <si>
-    <t>3038683736Em</t>
+    <t>3038683736</t>
   </si>
   <si>
     <t>ivansalazar@kw.com</t>
@@ -2666,7 +2662,7 @@
     <t>Zach Otten</t>
   </si>
   <si>
-    <t>3038886101Em</t>
+    <t>3038886101</t>
   </si>
   <si>
     <t>zotten@kw.com</t>
@@ -2675,7 +2671,7 @@
     <t>Brittany Seegrist</t>
   </si>
   <si>
-    <t>303-539-5700</t>
+    <t>3035395700</t>
   </si>
   <si>
     <t>BrittanySeegrist@gmail.com</t>
@@ -2684,7 +2680,7 @@
     <t>David Urbach</t>
   </si>
   <si>
-    <t>720-257-4370</t>
+    <t>7202574370</t>
   </si>
   <si>
     <t>david.urbach@dtaconsultants.net</t>
@@ -2693,7 +2689,7 @@
     <t>Kristen Miller</t>
   </si>
   <si>
-    <t>303-903-3172</t>
+    <t>3039033172</t>
   </si>
   <si>
     <t>kmiller.homes@gmail.com</t>
@@ -3080,8 +3076,7 @@
   <dimension ref="A1:C307"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="3" max="3" width="5" customWidth="1"/>
+    <col min="1" max="3" width="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3323,3142 +3318,3142 @@
         <v>64</v>
       </c>
       <c r="C22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>65</v>
+      </c>
+      <c r="B23" t="s">
         <v>66</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>67</v>
-      </c>
-      <c r="C23" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>68</v>
+      </c>
+      <c r="B24" t="s">
         <v>69</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>70</v>
-      </c>
-      <c r="C24" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>71</v>
+      </c>
+      <c r="B25" t="s">
         <v>72</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>73</v>
-      </c>
-      <c r="C25" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>74</v>
+      </c>
+      <c r="B26" t="s">
         <v>75</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>76</v>
-      </c>
-      <c r="C26" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>77</v>
+      </c>
+      <c r="B27" t="s">
         <v>78</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
         <v>79</v>
-      </c>
-      <c r="C27" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B28" t="s">
         <v>64</v>
       </c>
       <c r="C28" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>81</v>
+      </c>
+      <c r="B29" t="s">
         <v>82</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
         <v>83</v>
-      </c>
-      <c r="C29" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>84</v>
+      </c>
+      <c r="B30" t="s">
         <v>85</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" t="s">
         <v>86</v>
-      </c>
-      <c r="C30" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>87</v>
+      </c>
+      <c r="B31" t="s">
         <v>88</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" t="s">
         <v>89</v>
-      </c>
-      <c r="C31" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>90</v>
+      </c>
+      <c r="B32" t="s">
         <v>91</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" t="s">
         <v>92</v>
-      </c>
-      <c r="C32" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>93</v>
+      </c>
+      <c r="B33" t="s">
         <v>94</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" t="s">
         <v>95</v>
-      </c>
-      <c r="C33" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>96</v>
+      </c>
+      <c r="B34" t="s">
         <v>97</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" t="s">
         <v>98</v>
-      </c>
-      <c r="C34" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>99</v>
+      </c>
+      <c r="B35" t="s">
         <v>100</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C35" t="s">
         <v>101</v>
-      </c>
-      <c r="C35" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>102</v>
+      </c>
+      <c r="B36" t="s">
         <v>103</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C36" t="s">
         <v>104</v>
-      </c>
-      <c r="C36" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>105</v>
+      </c>
+      <c r="B37" t="s">
         <v>106</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C37" t="s">
         <v>107</v>
-      </c>
-      <c r="C37" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>108</v>
+      </c>
+      <c r="B38" t="s">
         <v>109</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C38" t="s">
         <v>110</v>
-      </c>
-      <c r="C38" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>111</v>
+      </c>
+      <c r="B39" t="s">
         <v>112</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C39" t="s">
         <v>113</v>
-      </c>
-      <c r="C39" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>114</v>
+      </c>
+      <c r="B40" t="s">
         <v>115</v>
       </c>
-      <c r="B40" t="s">
+      <c r="C40" t="s">
         <v>116</v>
-      </c>
-      <c r="C40" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>117</v>
+      </c>
+      <c r="B41" t="s">
         <v>118</v>
       </c>
-      <c r="B41" t="s">
+      <c r="C41" t="s">
         <v>119</v>
-      </c>
-      <c r="C41" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>120</v>
+      </c>
+      <c r="B42" t="s">
         <v>121</v>
       </c>
-      <c r="B42" t="s">
+      <c r="C42" t="s">
         <v>122</v>
-      </c>
-      <c r="C42" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>123</v>
+      </c>
+      <c r="B43" t="s">
         <v>124</v>
       </c>
-      <c r="B43" t="s">
+      <c r="C43" t="s">
         <v>125</v>
-      </c>
-      <c r="C43" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
+        <v>126</v>
+      </c>
+      <c r="B44" t="s">
         <v>127</v>
       </c>
-      <c r="B44" t="s">
+      <c r="C44" t="s">
         <v>128</v>
-      </c>
-      <c r="C44" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>129</v>
+      </c>
+      <c r="B45" t="s">
         <v>130</v>
       </c>
-      <c r="B45" t="s">
+      <c r="C45" t="s">
         <v>131</v>
-      </c>
-      <c r="C45" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
+        <v>132</v>
+      </c>
+      <c r="B46" t="s">
         <v>133</v>
       </c>
-      <c r="B46" t="s">
+      <c r="C46" t="s">
         <v>134</v>
-      </c>
-      <c r="C46" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
+        <v>135</v>
+      </c>
+      <c r="B47" t="s">
         <v>136</v>
       </c>
-      <c r="B47" t="s">
+      <c r="C47" t="s">
         <v>137</v>
-      </c>
-      <c r="C47" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>138</v>
+      </c>
+      <c r="B48" t="s">
         <v>139</v>
       </c>
-      <c r="B48" t="s">
+      <c r="C48" t="s">
         <v>140</v>
-      </c>
-      <c r="C48" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
+        <v>141</v>
+      </c>
+      <c r="B49" t="s">
         <v>142</v>
       </c>
-      <c r="B49" t="s">
+      <c r="C49" t="s">
         <v>143</v>
-      </c>
-      <c r="C49" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
+        <v>144</v>
+      </c>
+      <c r="B50" t="s">
         <v>145</v>
       </c>
-      <c r="B50" t="s">
+      <c r="C50" t="s">
         <v>146</v>
-      </c>
-      <c r="C50" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>147</v>
+      </c>
+      <c r="B51" t="s">
         <v>148</v>
       </c>
-      <c r="B51" t="s">
+      <c r="C51" t="s">
         <v>149</v>
-      </c>
-      <c r="C51" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
+        <v>150</v>
+      </c>
+      <c r="B52" t="s">
         <v>151</v>
       </c>
-      <c r="B52" t="s">
+      <c r="C52" t="s">
         <v>152</v>
-      </c>
-      <c r="C52" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
+        <v>153</v>
+      </c>
+      <c r="B53" t="s">
         <v>154</v>
       </c>
-      <c r="B53" t="s">
+      <c r="C53" t="s">
         <v>155</v>
-      </c>
-      <c r="C53" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
+        <v>156</v>
+      </c>
+      <c r="B54" t="s">
         <v>157</v>
       </c>
-      <c r="B54" t="s">
+      <c r="C54" t="s">
         <v>158</v>
-      </c>
-      <c r="C54" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
+        <v>159</v>
+      </c>
+      <c r="B55" t="s">
         <v>160</v>
       </c>
-      <c r="B55" t="s">
+      <c r="C55" t="s">
         <v>161</v>
-      </c>
-      <c r="C55" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
+        <v>162</v>
+      </c>
+      <c r="B56" t="s">
         <v>163</v>
       </c>
-      <c r="B56" t="s">
+      <c r="C56" t="s">
         <v>164</v>
-      </c>
-      <c r="C56" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
+        <v>165</v>
+      </c>
+      <c r="B57" t="s">
         <v>166</v>
       </c>
-      <c r="B57" t="s">
+      <c r="C57" t="s">
         <v>167</v>
-      </c>
-      <c r="C57" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
+        <v>168</v>
+      </c>
+      <c r="B58" t="s">
         <v>169</v>
       </c>
-      <c r="B58" t="s">
+      <c r="C58" t="s">
         <v>170</v>
-      </c>
-      <c r="C58" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
+        <v>171</v>
+      </c>
+      <c r="B59" t="s">
         <v>172</v>
       </c>
-      <c r="B59" t="s">
+      <c r="C59" t="s">
         <v>173</v>
-      </c>
-      <c r="C59" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
+        <v>174</v>
+      </c>
+      <c r="B60" t="s">
         <v>175</v>
       </c>
-      <c r="B60" t="s">
+      <c r="C60" t="s">
         <v>176</v>
-      </c>
-      <c r="C60" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
+        <v>177</v>
+      </c>
+      <c r="B61" t="s">
         <v>178</v>
       </c>
-      <c r="B61" t="s">
+      <c r="C61" t="s">
         <v>179</v>
-      </c>
-      <c r="C61" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
+        <v>180</v>
+      </c>
+      <c r="B62" t="s">
         <v>181</v>
       </c>
-      <c r="B62" t="s">
+      <c r="C62" t="s">
         <v>182</v>
-      </c>
-      <c r="C62" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
+        <v>183</v>
+      </c>
+      <c r="B63" t="s">
         <v>184</v>
       </c>
-      <c r="B63" t="s">
+      <c r="C63" t="s">
         <v>185</v>
-      </c>
-      <c r="C63" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
+        <v>186</v>
+      </c>
+      <c r="B64" t="s">
         <v>187</v>
       </c>
-      <c r="B64" t="s">
+      <c r="C64" t="s">
         <v>188</v>
-      </c>
-      <c r="C64" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
+        <v>189</v>
+      </c>
+      <c r="B65" t="s">
         <v>190</v>
       </c>
-      <c r="B65" t="s">
+      <c r="C65" t="s">
         <v>191</v>
-      </c>
-      <c r="C65" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
+        <v>192</v>
+      </c>
+      <c r="B66" t="s">
         <v>193</v>
       </c>
-      <c r="B66" t="s">
+      <c r="C66" t="s">
         <v>194</v>
-      </c>
-      <c r="C66" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
+        <v>195</v>
+      </c>
+      <c r="B67" t="s">
         <v>196</v>
       </c>
-      <c r="B67" t="s">
+      <c r="C67" t="s">
         <v>197</v>
-      </c>
-      <c r="C67" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
+        <v>198</v>
+      </c>
+      <c r="B68" t="s">
         <v>199</v>
       </c>
-      <c r="B68" t="s">
+      <c r="C68" t="s">
         <v>200</v>
-      </c>
-      <c r="C68" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B69" t="s">
         <v>64</v>
       </c>
       <c r="C69" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
+        <v>202</v>
+      </c>
+      <c r="B70" t="s">
         <v>203</v>
       </c>
-      <c r="B70" t="s">
+      <c r="C70" t="s">
         <v>204</v>
-      </c>
-      <c r="C70" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
+        <v>205</v>
+      </c>
+      <c r="B71" t="s">
         <v>206</v>
       </c>
-      <c r="B71" t="s">
+      <c r="C71" t="s">
         <v>207</v>
-      </c>
-      <c r="C71" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
+        <v>208</v>
+      </c>
+      <c r="B72" t="s">
         <v>209</v>
       </c>
-      <c r="B72" t="s">
+      <c r="C72" t="s">
         <v>210</v>
-      </c>
-      <c r="C72" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
+        <v>211</v>
+      </c>
+      <c r="B73" t="s">
         <v>212</v>
       </c>
-      <c r="B73" t="s">
+      <c r="C73" t="s">
         <v>213</v>
-      </c>
-      <c r="C73" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
+        <v>214</v>
+      </c>
+      <c r="B74" t="s">
         <v>215</v>
       </c>
-      <c r="B74" t="s">
+      <c r="C74" t="s">
         <v>216</v>
-      </c>
-      <c r="C74" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
+        <v>217</v>
+      </c>
+      <c r="B75" t="s">
         <v>218</v>
       </c>
-      <c r="B75" t="s">
+      <c r="C75" t="s">
         <v>219</v>
-      </c>
-      <c r="C75" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
+        <v>220</v>
+      </c>
+      <c r="B76" t="s">
         <v>221</v>
       </c>
-      <c r="B76" t="s">
+      <c r="C76" t="s">
         <v>222</v>
-      </c>
-      <c r="C76" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
+        <v>223</v>
+      </c>
+      <c r="B77" t="s">
         <v>224</v>
       </c>
-      <c r="B77" t="s">
+      <c r="C77" t="s">
         <v>225</v>
-      </c>
-      <c r="C77" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
+        <v>226</v>
+      </c>
+      <c r="B78" t="s">
         <v>227</v>
       </c>
-      <c r="B78" t="s">
+      <c r="C78" t="s">
         <v>228</v>
-      </c>
-      <c r="C78" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
+        <v>229</v>
+      </c>
+      <c r="B79" t="s">
         <v>230</v>
       </c>
-      <c r="B79" t="s">
+      <c r="C79" t="s">
         <v>231</v>
-      </c>
-      <c r="C79" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
+        <v>232</v>
+      </c>
+      <c r="B80" t="s">
         <v>233</v>
       </c>
-      <c r="B80" t="s">
+      <c r="C80" t="s">
         <v>234</v>
-      </c>
-      <c r="C80" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
+        <v>235</v>
+      </c>
+      <c r="B81" t="s">
         <v>236</v>
       </c>
-      <c r="B81" t="s">
+      <c r="C81" t="s">
         <v>237</v>
-      </c>
-      <c r="C81" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
+        <v>238</v>
+      </c>
+      <c r="B82" t="s">
         <v>239</v>
       </c>
-      <c r="B82" t="s">
+      <c r="C82" t="s">
         <v>240</v>
-      </c>
-      <c r="C82" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
+        <v>241</v>
+      </c>
+      <c r="B83" t="s">
         <v>242</v>
       </c>
-      <c r="B83" t="s">
+      <c r="C83" t="s">
         <v>243</v>
-      </c>
-      <c r="C83" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
+        <v>244</v>
+      </c>
+      <c r="B84" t="s">
         <v>245</v>
       </c>
-      <c r="B84" t="s">
+      <c r="C84" t="s">
         <v>246</v>
-      </c>
-      <c r="C84" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
+        <v>247</v>
+      </c>
+      <c r="B85" t="s">
         <v>248</v>
       </c>
-      <c r="B85" t="s">
+      <c r="C85" t="s">
         <v>249</v>
-      </c>
-      <c r="C85" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
+        <v>250</v>
+      </c>
+      <c r="B86" t="s">
         <v>251</v>
       </c>
-      <c r="B86" t="s">
+      <c r="C86" t="s">
         <v>252</v>
-      </c>
-      <c r="C86" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
+        <v>253</v>
+      </c>
+      <c r="B87" t="s">
         <v>254</v>
       </c>
-      <c r="B87" t="s">
+      <c r="C87" t="s">
         <v>255</v>
-      </c>
-      <c r="C87" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
+        <v>256</v>
+      </c>
+      <c r="B88" t="s">
         <v>257</v>
       </c>
-      <c r="B88" t="s">
+      <c r="C88" t="s">
         <v>258</v>
-      </c>
-      <c r="C88" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
+        <v>259</v>
+      </c>
+      <c r="B89" t="s">
         <v>260</v>
       </c>
-      <c r="B89" t="s">
+      <c r="C89" t="s">
         <v>261</v>
-      </c>
-      <c r="C89" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
+        <v>262</v>
+      </c>
+      <c r="B90" t="s">
         <v>263</v>
       </c>
-      <c r="B90" t="s">
+      <c r="C90" t="s">
         <v>264</v>
-      </c>
-      <c r="C90" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
+        <v>265</v>
+      </c>
+      <c r="B91" t="s">
         <v>266</v>
       </c>
-      <c r="B91" t="s">
+      <c r="C91" t="s">
         <v>267</v>
-      </c>
-      <c r="C91" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
+        <v>268</v>
+      </c>
+      <c r="B92" t="s">
         <v>269</v>
       </c>
-      <c r="B92" t="s">
+      <c r="C92" t="s">
         <v>270</v>
-      </c>
-      <c r="C92" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
+        <v>271</v>
+      </c>
+      <c r="B93" t="s">
         <v>272</v>
       </c>
-      <c r="B93" t="s">
+      <c r="C93" t="s">
         <v>273</v>
-      </c>
-      <c r="C93" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
+        <v>274</v>
+      </c>
+      <c r="B94" t="s">
         <v>275</v>
       </c>
-      <c r="B94" t="s">
+      <c r="C94" t="s">
         <v>276</v>
-      </c>
-      <c r="C94" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
+        <v>277</v>
+      </c>
+      <c r="B95" t="s">
         <v>278</v>
       </c>
-      <c r="B95" t="s">
+      <c r="C95" t="s">
         <v>279</v>
-      </c>
-      <c r="C95" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
+        <v>280</v>
+      </c>
+      <c r="B96" t="s">
         <v>281</v>
       </c>
-      <c r="B96" t="s">
+      <c r="C96" t="s">
         <v>282</v>
-      </c>
-      <c r="C96" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
+        <v>283</v>
+      </c>
+      <c r="B97" t="s">
         <v>284</v>
       </c>
-      <c r="B97" t="s">
+      <c r="C97" t="s">
         <v>285</v>
-      </c>
-      <c r="C97" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
+        <v>286</v>
+      </c>
+      <c r="B98" t="s">
         <v>287</v>
       </c>
-      <c r="B98" t="s">
+      <c r="C98" t="s">
         <v>288</v>
-      </c>
-      <c r="C98" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
+        <v>289</v>
+      </c>
+      <c r="B99" t="s">
         <v>290</v>
       </c>
-      <c r="B99" t="s">
+      <c r="C99" t="s">
         <v>291</v>
-      </c>
-      <c r="C99" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
+        <v>292</v>
+      </c>
+      <c r="B100" t="s">
         <v>293</v>
       </c>
-      <c r="B100" t="s">
+      <c r="C100" t="s">
         <v>294</v>
-      </c>
-      <c r="C100" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B101" t="s">
         <v>64</v>
       </c>
       <c r="C101" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
+        <v>296</v>
+      </c>
+      <c r="B102" t="s">
         <v>297</v>
       </c>
-      <c r="B102" t="s">
+      <c r="C102" t="s">
         <v>298</v>
-      </c>
-      <c r="C102" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
+        <v>299</v>
+      </c>
+      <c r="B103" t="s">
         <v>300</v>
       </c>
-      <c r="B103" t="s">
+      <c r="C103" t="s">
         <v>301</v>
-      </c>
-      <c r="C103" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
+        <v>302</v>
+      </c>
+      <c r="B104" t="s">
         <v>303</v>
       </c>
-      <c r="B104" t="s">
+      <c r="C104" t="s">
         <v>304</v>
-      </c>
-      <c r="C104" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
+        <v>305</v>
+      </c>
+      <c r="B105" t="s">
         <v>306</v>
       </c>
-      <c r="B105" t="s">
+      <c r="C105" t="s">
         <v>307</v>
-      </c>
-      <c r="C105" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
+        <v>308</v>
+      </c>
+      <c r="B106" t="s">
         <v>309</v>
       </c>
-      <c r="B106" t="s">
+      <c r="C106" t="s">
         <v>310</v>
-      </c>
-      <c r="C106" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
+        <v>311</v>
+      </c>
+      <c r="B107" t="s">
         <v>312</v>
       </c>
-      <c r="B107" t="s">
+      <c r="C107" t="s">
         <v>313</v>
-      </c>
-      <c r="C107" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
+        <v>314</v>
+      </c>
+      <c r="B108" t="s">
         <v>315</v>
       </c>
-      <c r="B108" t="s">
+      <c r="C108" t="s">
         <v>316</v>
-      </c>
-      <c r="C108" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
+        <v>317</v>
+      </c>
+      <c r="B109" t="s">
         <v>318</v>
       </c>
-      <c r="B109" t="s">
+      <c r="C109" t="s">
         <v>319</v>
-      </c>
-      <c r="C109" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
+        <v>320</v>
+      </c>
+      <c r="B110" t="s">
         <v>321</v>
       </c>
-      <c r="B110" t="s">
+      <c r="C110" t="s">
         <v>322</v>
-      </c>
-      <c r="C110" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
+        <v>323</v>
+      </c>
+      <c r="B111" t="s">
         <v>324</v>
       </c>
-      <c r="B111" t="s">
+      <c r="C111" t="s">
         <v>325</v>
-      </c>
-      <c r="C111" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
+        <v>326</v>
+      </c>
+      <c r="B112" t="s">
         <v>327</v>
       </c>
-      <c r="B112" t="s">
+      <c r="C112" t="s">
         <v>328</v>
-      </c>
-      <c r="C112" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B113" t="s">
         <v>64</v>
       </c>
       <c r="C113" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
+        <v>330</v>
+      </c>
+      <c r="B114" t="s">
         <v>331</v>
       </c>
-      <c r="B114" t="s">
+      <c r="C114" t="s">
         <v>332</v>
-      </c>
-      <c r="C114" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
+        <v>333</v>
+      </c>
+      <c r="B115" t="s">
         <v>334</v>
       </c>
-      <c r="B115" t="s">
+      <c r="C115" t="s">
         <v>335</v>
-      </c>
-      <c r="C115" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
+        <v>336</v>
+      </c>
+      <c r="B116" t="s">
         <v>337</v>
       </c>
-      <c r="B116" t="s">
+      <c r="C116" t="s">
         <v>338</v>
-      </c>
-      <c r="C116" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
+        <v>339</v>
+      </c>
+      <c r="B117" t="s">
         <v>340</v>
       </c>
-      <c r="B117" t="s">
+      <c r="C117" t="s">
         <v>341</v>
-      </c>
-      <c r="C117" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
+        <v>342</v>
+      </c>
+      <c r="B118" t="s">
         <v>343</v>
       </c>
-      <c r="B118" t="s">
+      <c r="C118" t="s">
         <v>344</v>
-      </c>
-      <c r="C118" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
+        <v>345</v>
+      </c>
+      <c r="B119" t="s">
         <v>346</v>
       </c>
-      <c r="B119" t="s">
+      <c r="C119" t="s">
         <v>347</v>
-      </c>
-      <c r="C119" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
+        <v>348</v>
+      </c>
+      <c r="B120" t="s">
         <v>349</v>
       </c>
-      <c r="B120" t="s">
+      <c r="C120" t="s">
         <v>350</v>
-      </c>
-      <c r="C120" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
+        <v>351</v>
+      </c>
+      <c r="B121" t="s">
         <v>352</v>
       </c>
-      <c r="B121" t="s">
+      <c r="C121" t="s">
         <v>353</v>
-      </c>
-      <c r="C121" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
+        <v>354</v>
+      </c>
+      <c r="B122" t="s">
         <v>355</v>
       </c>
-      <c r="B122" t="s">
+      <c r="C122" t="s">
         <v>356</v>
-      </c>
-      <c r="C122" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
+        <v>357</v>
+      </c>
+      <c r="B123" t="s">
         <v>358</v>
       </c>
-      <c r="B123" t="s">
+      <c r="C123" t="s">
         <v>359</v>
-      </c>
-      <c r="C123" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
+        <v>360</v>
+      </c>
+      <c r="B124" t="s">
         <v>361</v>
       </c>
-      <c r="B124" t="s">
+      <c r="C124" t="s">
         <v>362</v>
-      </c>
-      <c r="C124" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
+        <v>363</v>
+      </c>
+      <c r="B125" t="s">
         <v>364</v>
       </c>
-      <c r="B125" t="s">
+      <c r="C125" t="s">
         <v>365</v>
-      </c>
-      <c r="C125" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
+        <v>366</v>
+      </c>
+      <c r="B126" t="s">
         <v>367</v>
       </c>
-      <c r="B126" t="s">
+      <c r="C126" t="s">
         <v>368</v>
-      </c>
-      <c r="C126" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B127" t="s">
         <v>64</v>
       </c>
       <c r="C127" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
+        <v>370</v>
+      </c>
+      <c r="B128" t="s">
         <v>371</v>
       </c>
-      <c r="B128" t="s">
+      <c r="C128" t="s">
         <v>372</v>
-      </c>
-      <c r="C128" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B129" t="s">
         <v>64</v>
       </c>
       <c r="C129" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
+        <v>374</v>
+      </c>
+      <c r="B130" t="s">
         <v>375</v>
       </c>
-      <c r="B130" t="s">
+      <c r="C130" t="s">
         <v>376</v>
-      </c>
-      <c r="C130" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
+        <v>377</v>
+      </c>
+      <c r="B131" t="s">
         <v>378</v>
       </c>
-      <c r="B131" t="s">
+      <c r="C131" t="s">
         <v>379</v>
-      </c>
-      <c r="C131" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
+        <v>380</v>
+      </c>
+      <c r="B132" t="s">
         <v>381</v>
       </c>
-      <c r="B132" t="s">
+      <c r="C132" t="s">
         <v>382</v>
-      </c>
-      <c r="C132" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
+        <v>383</v>
+      </c>
+      <c r="B133" t="s">
         <v>384</v>
       </c>
-      <c r="B133" t="s">
+      <c r="C133" t="s">
         <v>385</v>
-      </c>
-      <c r="C133" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
+        <v>386</v>
+      </c>
+      <c r="B134" t="s">
         <v>387</v>
       </c>
-      <c r="B134" t="s">
+      <c r="C134" t="s">
         <v>388</v>
-      </c>
-      <c r="C134" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
+        <v>389</v>
+      </c>
+      <c r="B135" t="s">
         <v>390</v>
       </c>
-      <c r="B135" t="s">
+      <c r="C135" t="s">
         <v>391</v>
-      </c>
-      <c r="C135" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
+        <v>392</v>
+      </c>
+      <c r="B136" t="s">
         <v>393</v>
       </c>
-      <c r="B136" t="s">
+      <c r="C136" t="s">
         <v>394</v>
-      </c>
-      <c r="C136" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
+        <v>395</v>
+      </c>
+      <c r="B137" t="s">
         <v>396</v>
       </c>
-      <c r="B137" t="s">
+      <c r="C137" t="s">
         <v>397</v>
-      </c>
-      <c r="C137" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
+        <v>398</v>
+      </c>
+      <c r="B138" t="s">
         <v>399</v>
       </c>
-      <c r="B138" t="s">
+      <c r="C138" t="s">
         <v>400</v>
-      </c>
-      <c r="C138" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
+        <v>401</v>
+      </c>
+      <c r="B139" t="s">
         <v>402</v>
       </c>
-      <c r="B139" t="s">
+      <c r="C139" t="s">
         <v>403</v>
-      </c>
-      <c r="C139" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
+        <v>404</v>
+      </c>
+      <c r="B140" t="s">
         <v>405</v>
       </c>
-      <c r="B140" t="s">
+      <c r="C140" t="s">
         <v>406</v>
-      </c>
-      <c r="C140" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
+        <v>407</v>
+      </c>
+      <c r="B141" t="s">
         <v>408</v>
       </c>
-      <c r="B141" t="s">
+      <c r="C141" t="s">
         <v>409</v>
-      </c>
-      <c r="C141" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
+        <v>410</v>
+      </c>
+      <c r="B142" t="s">
         <v>411</v>
       </c>
-      <c r="B142" t="s">
+      <c r="C142" t="s">
         <v>412</v>
-      </c>
-      <c r="C142" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
+        <v>413</v>
+      </c>
+      <c r="B143" t="s">
         <v>414</v>
       </c>
-      <c r="B143" t="s">
+      <c r="C143" t="s">
         <v>415</v>
-      </c>
-      <c r="C143" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
+        <v>416</v>
+      </c>
+      <c r="B144" t="s">
         <v>417</v>
       </c>
-      <c r="B144" t="s">
+      <c r="C144" t="s">
         <v>418</v>
-      </c>
-      <c r="C144" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B145" t="s">
         <v>64</v>
       </c>
       <c r="C145" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
+        <v>420</v>
+      </c>
+      <c r="B146" t="s">
         <v>421</v>
       </c>
-      <c r="B146" t="s">
+      <c r="C146" t="s">
         <v>422</v>
-      </c>
-      <c r="C146" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
+        <v>423</v>
+      </c>
+      <c r="B147" t="s">
         <v>424</v>
       </c>
-      <c r="B147" t="s">
+      <c r="C147" t="s">
         <v>425</v>
-      </c>
-      <c r="C147" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
+        <v>426</v>
+      </c>
+      <c r="B148" t="s">
         <v>427</v>
       </c>
-      <c r="B148" t="s">
+      <c r="C148" t="s">
         <v>428</v>
-      </c>
-      <c r="C148" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
+        <v>429</v>
+      </c>
+      <c r="B149" t="s">
         <v>430</v>
       </c>
-      <c r="B149" t="s">
+      <c r="C149" t="s">
         <v>431</v>
-      </c>
-      <c r="C149" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
+        <v>432</v>
+      </c>
+      <c r="B150" t="s">
         <v>433</v>
       </c>
-      <c r="B150" t="s">
+      <c r="C150" t="s">
         <v>434</v>
-      </c>
-      <c r="C150" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
+        <v>435</v>
+      </c>
+      <c r="B151" t="s">
         <v>436</v>
       </c>
-      <c r="B151" t="s">
+      <c r="C151" t="s">
         <v>437</v>
-      </c>
-      <c r="C151" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
+        <v>438</v>
+      </c>
+      <c r="B152" t="s">
         <v>439</v>
       </c>
-      <c r="B152" t="s">
+      <c r="C152" t="s">
         <v>440</v>
-      </c>
-      <c r="C152" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
+        <v>441</v>
+      </c>
+      <c r="B153" t="s">
         <v>442</v>
       </c>
-      <c r="B153" t="s">
+      <c r="C153" t="s">
         <v>443</v>
-      </c>
-      <c r="C153" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
+        <v>444</v>
+      </c>
+      <c r="B154" t="s">
         <v>445</v>
       </c>
-      <c r="B154" t="s">
+      <c r="C154" t="s">
         <v>446</v>
-      </c>
-      <c r="C154" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
+        <v>447</v>
+      </c>
+      <c r="B155" t="s">
         <v>448</v>
       </c>
-      <c r="B155" t="s">
+      <c r="C155" t="s">
         <v>449</v>
-      </c>
-      <c r="C155" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
+        <v>450</v>
+      </c>
+      <c r="B156" t="s">
         <v>451</v>
       </c>
-      <c r="B156" t="s">
+      <c r="C156" t="s">
         <v>452</v>
-      </c>
-      <c r="C156" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
+        <v>453</v>
+      </c>
+      <c r="B157" t="s">
         <v>454</v>
       </c>
-      <c r="B157" t="s">
+      <c r="C157" t="s">
         <v>455</v>
-      </c>
-      <c r="C157" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
+        <v>456</v>
+      </c>
+      <c r="B158" t="s">
         <v>457</v>
       </c>
-      <c r="B158" t="s">
+      <c r="C158" t="s">
         <v>458</v>
-      </c>
-      <c r="C158" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
+        <v>459</v>
+      </c>
+      <c r="B159" t="s">
         <v>460</v>
       </c>
-      <c r="B159" t="s">
+      <c r="C159" t="s">
         <v>461</v>
-      </c>
-      <c r="C159" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
+        <v>462</v>
+      </c>
+      <c r="B160" t="s">
         <v>463</v>
       </c>
-      <c r="B160" t="s">
+      <c r="C160" t="s">
         <v>464</v>
-      </c>
-      <c r="C160" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
+        <v>465</v>
+      </c>
+      <c r="B161" t="s">
         <v>466</v>
       </c>
-      <c r="B161" t="s">
+      <c r="C161" t="s">
         <v>467</v>
-      </c>
-      <c r="C161" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
+        <v>468</v>
+      </c>
+      <c r="B162" t="s">
         <v>469</v>
       </c>
-      <c r="B162" t="s">
+      <c r="C162" t="s">
         <v>470</v>
-      </c>
-      <c r="C162" t="s">
-        <v>471</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
+        <v>471</v>
+      </c>
+      <c r="B163" t="s">
         <v>472</v>
       </c>
-      <c r="B163" t="s">
+      <c r="C163" t="s">
         <v>473</v>
-      </c>
-      <c r="C163" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
+        <v>474</v>
+      </c>
+      <c r="B164" t="s">
         <v>475</v>
       </c>
-      <c r="B164" t="s">
+      <c r="C164" t="s">
         <v>476</v>
-      </c>
-      <c r="C164" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
+        <v>477</v>
+      </c>
+      <c r="B165" t="s">
         <v>478</v>
       </c>
-      <c r="B165" t="s">
+      <c r="C165" t="s">
         <v>479</v>
-      </c>
-      <c r="C165" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
+        <v>480</v>
+      </c>
+      <c r="B166" t="s">
         <v>481</v>
       </c>
-      <c r="B166" t="s">
+      <c r="C166" t="s">
         <v>482</v>
-      </c>
-      <c r="C166" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
+        <v>483</v>
+      </c>
+      <c r="B167" t="s">
         <v>484</v>
       </c>
-      <c r="B167" t="s">
+      <c r="C167" t="s">
         <v>485</v>
-      </c>
-      <c r="C167" t="s">
-        <v>486</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
+        <v>486</v>
+      </c>
+      <c r="B168" t="s">
         <v>487</v>
       </c>
-      <c r="B168" t="s">
+      <c r="C168" t="s">
         <v>488</v>
-      </c>
-      <c r="C168" t="s">
-        <v>489</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
+        <v>489</v>
+      </c>
+      <c r="B169" t="s">
         <v>490</v>
       </c>
-      <c r="B169" t="s">
+      <c r="C169" t="s">
         <v>491</v>
-      </c>
-      <c r="C169" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
+        <v>492</v>
+      </c>
+      <c r="B170" t="s">
         <v>493</v>
       </c>
-      <c r="B170" t="s">
+      <c r="C170" t="s">
         <v>494</v>
-      </c>
-      <c r="C170" t="s">
-        <v>495</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
+        <v>495</v>
+      </c>
+      <c r="B171" t="s">
         <v>496</v>
       </c>
-      <c r="B171" t="s">
+      <c r="C171" t="s">
         <v>497</v>
-      </c>
-      <c r="C171" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
+        <v>498</v>
+      </c>
+      <c r="B172" t="s">
         <v>499</v>
       </c>
-      <c r="B172" t="s">
+      <c r="C172" t="s">
         <v>500</v>
-      </c>
-      <c r="C172" t="s">
-        <v>501</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
+        <v>501</v>
+      </c>
+      <c r="B173" t="s">
         <v>502</v>
       </c>
-      <c r="B173" t="s">
+      <c r="C173" t="s">
         <v>503</v>
-      </c>
-      <c r="C173" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
+        <v>504</v>
+      </c>
+      <c r="B174" t="s">
         <v>505</v>
       </c>
-      <c r="B174" t="s">
+      <c r="C174" t="s">
         <v>506</v>
-      </c>
-      <c r="C174" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
+        <v>507</v>
+      </c>
+      <c r="B175" t="s">
         <v>508</v>
       </c>
-      <c r="B175" t="s">
+      <c r="C175" t="s">
         <v>509</v>
-      </c>
-      <c r="C175" t="s">
-        <v>510</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
+        <v>510</v>
+      </c>
+      <c r="B176" t="s">
         <v>511</v>
       </c>
-      <c r="B176" t="s">
+      <c r="C176" t="s">
         <v>512</v>
-      </c>
-      <c r="C176" t="s">
-        <v>513</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
+        <v>513</v>
+      </c>
+      <c r="B177" t="s">
         <v>514</v>
       </c>
-      <c r="B177" t="s">
+      <c r="C177" t="s">
         <v>515</v>
-      </c>
-      <c r="C177" t="s">
-        <v>516</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
+        <v>516</v>
+      </c>
+      <c r="B178" t="s">
         <v>517</v>
       </c>
-      <c r="B178" t="s">
+      <c r="C178" t="s">
         <v>518</v>
-      </c>
-      <c r="C178" t="s">
-        <v>519</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
+        <v>519</v>
+      </c>
+      <c r="B179" t="s">
         <v>520</v>
       </c>
-      <c r="B179" t="s">
+      <c r="C179" t="s">
         <v>521</v>
-      </c>
-      <c r="C179" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B180" t="s">
         <v>64</v>
       </c>
       <c r="C180" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
+        <v>523</v>
+      </c>
+      <c r="B181" t="s">
         <v>524</v>
       </c>
-      <c r="B181" t="s">
+      <c r="C181" t="s">
         <v>525</v>
-      </c>
-      <c r="C181" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
+        <v>526</v>
+      </c>
+      <c r="B182" t="s">
         <v>527</v>
       </c>
-      <c r="B182" t="s">
+      <c r="C182" t="s">
         <v>528</v>
-      </c>
-      <c r="C182" t="s">
-        <v>529</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
+        <v>529</v>
+      </c>
+      <c r="B183" t="s">
         <v>530</v>
       </c>
-      <c r="B183" t="s">
+      <c r="C183" t="s">
         <v>531</v>
-      </c>
-      <c r="C183" t="s">
-        <v>532</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
+        <v>532</v>
+      </c>
+      <c r="B184" t="s">
         <v>533</v>
       </c>
-      <c r="B184" t="s">
+      <c r="C184" t="s">
         <v>534</v>
-      </c>
-      <c r="C184" t="s">
-        <v>535</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
+        <v>535</v>
+      </c>
+      <c r="B185" t="s">
         <v>536</v>
       </c>
-      <c r="B185" t="s">
+      <c r="C185" t="s">
         <v>537</v>
-      </c>
-      <c r="C185" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
+        <v>538</v>
+      </c>
+      <c r="B186" t="s">
         <v>539</v>
       </c>
-      <c r="B186" t="s">
+      <c r="C186" t="s">
         <v>540</v>
-      </c>
-      <c r="C186" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
+        <v>541</v>
+      </c>
+      <c r="B187" t="s">
         <v>542</v>
       </c>
-      <c r="B187" t="s">
+      <c r="C187" t="s">
         <v>543</v>
-      </c>
-      <c r="C187" t="s">
-        <v>544</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
+        <v>544</v>
+      </c>
+      <c r="B188" t="s">
         <v>545</v>
       </c>
-      <c r="B188" t="s">
+      <c r="C188" t="s">
         <v>546</v>
-      </c>
-      <c r="C188" t="s">
-        <v>547</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
+        <v>547</v>
+      </c>
+      <c r="B189" t="s">
         <v>548</v>
       </c>
-      <c r="B189" t="s">
+      <c r="C189" t="s">
         <v>549</v>
-      </c>
-      <c r="C189" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
+        <v>550</v>
+      </c>
+      <c r="B190" t="s">
         <v>551</v>
       </c>
-      <c r="B190" t="s">
+      <c r="C190" t="s">
         <v>552</v>
-      </c>
-      <c r="C190" t="s">
-        <v>553</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
+        <v>553</v>
+      </c>
+      <c r="B191" t="s">
         <v>554</v>
       </c>
-      <c r="B191" t="s">
+      <c r="C191" t="s">
         <v>555</v>
-      </c>
-      <c r="C191" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
+        <v>556</v>
+      </c>
+      <c r="B192" t="s">
         <v>557</v>
       </c>
-      <c r="B192" t="s">
+      <c r="C192" t="s">
         <v>558</v>
-      </c>
-      <c r="C192" t="s">
-        <v>559</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
+        <v>559</v>
+      </c>
+      <c r="B193" t="s">
         <v>560</v>
       </c>
-      <c r="B193" t="s">
+      <c r="C193" t="s">
         <v>561</v>
-      </c>
-      <c r="C193" t="s">
-        <v>562</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
+        <v>562</v>
+      </c>
+      <c r="B194" t="s">
         <v>563</v>
       </c>
-      <c r="B194" t="s">
+      <c r="C194" t="s">
         <v>564</v>
-      </c>
-      <c r="C194" t="s">
-        <v>565</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
+        <v>565</v>
+      </c>
+      <c r="B195" t="s">
         <v>566</v>
       </c>
-      <c r="B195" t="s">
+      <c r="C195" t="s">
         <v>567</v>
-      </c>
-      <c r="C195" t="s">
-        <v>568</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
+        <v>568</v>
+      </c>
+      <c r="B196" t="s">
         <v>569</v>
       </c>
-      <c r="B196" t="s">
+      <c r="C196" t="s">
         <v>570</v>
-      </c>
-      <c r="C196" t="s">
-        <v>571</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
+        <v>571</v>
+      </c>
+      <c r="B197" t="s">
         <v>572</v>
       </c>
-      <c r="B197" t="s">
+      <c r="C197" t="s">
         <v>573</v>
-      </c>
-      <c r="C197" t="s">
-        <v>574</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
+        <v>574</v>
+      </c>
+      <c r="B198" t="s">
         <v>575</v>
       </c>
-      <c r="B198" t="s">
+      <c r="C198" t="s">
         <v>576</v>
-      </c>
-      <c r="C198" t="s">
-        <v>577</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
+        <v>577</v>
+      </c>
+      <c r="B199" t="s">
         <v>578</v>
       </c>
-      <c r="B199" t="s">
+      <c r="C199" t="s">
         <v>579</v>
-      </c>
-      <c r="C199" t="s">
-        <v>580</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
+        <v>580</v>
+      </c>
+      <c r="B200" t="s">
         <v>581</v>
       </c>
-      <c r="B200" t="s">
+      <c r="C200" t="s">
         <v>582</v>
-      </c>
-      <c r="C200" t="s">
-        <v>583</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B201" t="s">
         <v>64</v>
       </c>
       <c r="C201" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
+        <v>584</v>
+      </c>
+      <c r="B202" t="s">
         <v>585</v>
       </c>
-      <c r="B202" t="s">
+      <c r="C202" t="s">
         <v>586</v>
-      </c>
-      <c r="C202" t="s">
-        <v>587</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
+        <v>587</v>
+      </c>
+      <c r="B203" t="s">
         <v>588</v>
       </c>
-      <c r="B203" t="s">
+      <c r="C203" t="s">
         <v>589</v>
-      </c>
-      <c r="C203" t="s">
-        <v>590</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
+        <v>590</v>
+      </c>
+      <c r="B204" t="s">
         <v>591</v>
       </c>
-      <c r="B204" t="s">
+      <c r="C204" t="s">
         <v>592</v>
-      </c>
-      <c r="C204" t="s">
-        <v>593</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
+        <v>593</v>
+      </c>
+      <c r="B205" t="s">
         <v>594</v>
       </c>
-      <c r="B205" t="s">
+      <c r="C205" t="s">
         <v>595</v>
-      </c>
-      <c r="C205" t="s">
-        <v>596</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
+        <v>596</v>
+      </c>
+      <c r="B206" t="s">
         <v>597</v>
       </c>
-      <c r="B206" t="s">
+      <c r="C206" t="s">
         <v>598</v>
-      </c>
-      <c r="C206" t="s">
-        <v>599</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
+        <v>599</v>
+      </c>
+      <c r="B207" t="s">
         <v>600</v>
       </c>
-      <c r="B207" t="s">
+      <c r="C207" t="s">
         <v>601</v>
-      </c>
-      <c r="C207" t="s">
-        <v>602</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
+        <v>602</v>
+      </c>
+      <c r="B208" t="s">
         <v>603</v>
       </c>
-      <c r="B208" t="s">
+      <c r="C208" t="s">
         <v>604</v>
-      </c>
-      <c r="C208" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
+        <v>605</v>
+      </c>
+      <c r="B209" t="s">
         <v>606</v>
       </c>
-      <c r="B209" t="s">
+      <c r="C209" t="s">
         <v>607</v>
-      </c>
-      <c r="C209" t="s">
-        <v>608</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
+        <v>608</v>
+      </c>
+      <c r="B210" t="s">
         <v>609</v>
       </c>
-      <c r="B210" t="s">
+      <c r="C210" t="s">
         <v>610</v>
-      </c>
-      <c r="C210" t="s">
-        <v>611</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
+        <v>611</v>
+      </c>
+      <c r="B211" t="s">
         <v>612</v>
       </c>
-      <c r="B211" t="s">
+      <c r="C211" t="s">
         <v>613</v>
-      </c>
-      <c r="C211" t="s">
-        <v>614</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
+        <v>614</v>
+      </c>
+      <c r="B212" t="s">
         <v>615</v>
       </c>
-      <c r="B212" t="s">
+      <c r="C212" t="s">
         <v>616</v>
-      </c>
-      <c r="C212" t="s">
-        <v>617</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
+        <v>617</v>
+      </c>
+      <c r="B213" t="s">
         <v>618</v>
       </c>
-      <c r="B213" t="s">
+      <c r="C213" t="s">
         <v>619</v>
-      </c>
-      <c r="C213" t="s">
-        <v>620</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
+        <v>620</v>
+      </c>
+      <c r="B214" t="s">
         <v>621</v>
       </c>
-      <c r="B214" t="s">
+      <c r="C214" t="s">
         <v>622</v>
-      </c>
-      <c r="C214" t="s">
-        <v>623</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B215" t="s">
         <v>64</v>
       </c>
       <c r="C215" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
+        <v>624</v>
+      </c>
+      <c r="B216" t="s">
         <v>625</v>
       </c>
-      <c r="B216" t="s">
+      <c r="C216" t="s">
         <v>626</v>
-      </c>
-      <c r="C216" t="s">
-        <v>627</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
+        <v>627</v>
+      </c>
+      <c r="B217" t="s">
         <v>628</v>
       </c>
-      <c r="B217" t="s">
+      <c r="C217" t="s">
         <v>629</v>
-      </c>
-      <c r="C217" t="s">
-        <v>630</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
+        <v>630</v>
+      </c>
+      <c r="B218" t="s">
         <v>631</v>
       </c>
-      <c r="B218" t="s">
+      <c r="C218" t="s">
         <v>632</v>
-      </c>
-      <c r="C218" t="s">
-        <v>633</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
+        <v>633</v>
+      </c>
+      <c r="B219" t="s">
         <v>634</v>
       </c>
-      <c r="B219" t="s">
+      <c r="C219" t="s">
         <v>635</v>
-      </c>
-      <c r="C219" t="s">
-        <v>636</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
+        <v>636</v>
+      </c>
+      <c r="B220" t="s">
         <v>637</v>
       </c>
-      <c r="B220" t="s">
+      <c r="C220" t="s">
         <v>638</v>
-      </c>
-      <c r="C220" t="s">
-        <v>639</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
+        <v>639</v>
+      </c>
+      <c r="B221" t="s">
         <v>640</v>
       </c>
-      <c r="B221" t="s">
+      <c r="C221" t="s">
         <v>641</v>
-      </c>
-      <c r="C221" t="s">
-        <v>642</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B222" t="s">
         <v>64</v>
       </c>
       <c r="C222" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
+        <v>643</v>
+      </c>
+      <c r="B223" t="s">
         <v>644</v>
       </c>
-      <c r="B223" t="s">
+      <c r="C223" t="s">
         <v>645</v>
-      </c>
-      <c r="C223" t="s">
-        <v>646</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
+        <v>646</v>
+      </c>
+      <c r="B224" t="s">
         <v>647</v>
       </c>
-      <c r="B224" t="s">
+      <c r="C224" t="s">
         <v>648</v>
-      </c>
-      <c r="C224" t="s">
-        <v>649</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
+        <v>649</v>
+      </c>
+      <c r="B225" t="s">
         <v>650</v>
       </c>
-      <c r="B225" t="s">
+      <c r="C225" t="s">
         <v>651</v>
-      </c>
-      <c r="C225" t="s">
-        <v>652</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
+        <v>652</v>
+      </c>
+      <c r="B226" t="s">
         <v>653</v>
       </c>
-      <c r="B226" t="s">
+      <c r="C226" t="s">
         <v>654</v>
-      </c>
-      <c r="C226" t="s">
-        <v>655</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
+        <v>655</v>
+      </c>
+      <c r="B227" t="s">
         <v>656</v>
       </c>
-      <c r="B227" t="s">
+      <c r="C227" t="s">
         <v>657</v>
-      </c>
-      <c r="C227" t="s">
-        <v>658</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
+        <v>658</v>
+      </c>
+      <c r="B228" t="s">
         <v>659</v>
       </c>
-      <c r="B228" t="s">
+      <c r="C228" t="s">
         <v>660</v>
-      </c>
-      <c r="C228" t="s">
-        <v>661</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
+        <v>661</v>
+      </c>
+      <c r="B229" t="s">
         <v>662</v>
       </c>
-      <c r="B229" t="s">
+      <c r="C229" t="s">
         <v>663</v>
-      </c>
-      <c r="C229" t="s">
-        <v>664</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
+        <v>664</v>
+      </c>
+      <c r="B230" t="s">
         <v>665</v>
       </c>
-      <c r="B230" t="s">
+      <c r="C230" t="s">
         <v>666</v>
-      </c>
-      <c r="C230" t="s">
-        <v>667</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
+        <v>667</v>
+      </c>
+      <c r="B231" t="s">
         <v>668</v>
       </c>
-      <c r="B231" t="s">
+      <c r="C231" t="s">
         <v>669</v>
-      </c>
-      <c r="C231" t="s">
-        <v>670</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
+        <v>670</v>
+      </c>
+      <c r="B232" t="s">
         <v>671</v>
       </c>
-      <c r="B232" t="s">
+      <c r="C232" t="s">
         <v>672</v>
-      </c>
-      <c r="C232" t="s">
-        <v>673</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
+        <v>673</v>
+      </c>
+      <c r="B233" t="s">
         <v>674</v>
       </c>
-      <c r="B233" t="s">
+      <c r="C233" t="s">
         <v>675</v>
-      </c>
-      <c r="C233" t="s">
-        <v>676</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
+        <v>676</v>
+      </c>
+      <c r="B234" t="s">
         <v>677</v>
       </c>
-      <c r="B234" t="s">
+      <c r="C234" t="s">
         <v>678</v>
-      </c>
-      <c r="C234" t="s">
-        <v>679</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
+        <v>679</v>
+      </c>
+      <c r="B235" t="s">
         <v>680</v>
       </c>
-      <c r="B235" t="s">
+      <c r="C235" t="s">
         <v>681</v>
-      </c>
-      <c r="C235" t="s">
-        <v>682</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
+        <v>682</v>
+      </c>
+      <c r="B236" t="s">
         <v>683</v>
       </c>
-      <c r="B236" t="s">
+      <c r="C236" t="s">
         <v>684</v>
-      </c>
-      <c r="C236" t="s">
-        <v>685</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
+        <v>685</v>
+      </c>
+      <c r="B237" t="s">
         <v>686</v>
       </c>
-      <c r="B237" t="s">
+      <c r="C237" t="s">
         <v>687</v>
-      </c>
-      <c r="C237" t="s">
-        <v>688</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
+        <v>688</v>
+      </c>
+      <c r="B238" t="s">
         <v>689</v>
       </c>
-      <c r="B238" t="s">
+      <c r="C238" t="s">
         <v>690</v>
-      </c>
-      <c r="C238" t="s">
-        <v>691</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
+        <v>691</v>
+      </c>
+      <c r="B239" t="s">
         <v>692</v>
       </c>
-      <c r="B239" t="s">
+      <c r="C239" t="s">
         <v>693</v>
-      </c>
-      <c r="C239" t="s">
-        <v>694</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
+        <v>694</v>
+      </c>
+      <c r="B240" t="s">
         <v>695</v>
       </c>
-      <c r="B240" t="s">
+      <c r="C240" t="s">
         <v>696</v>
-      </c>
-      <c r="C240" t="s">
-        <v>697</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
+        <v>697</v>
+      </c>
+      <c r="B241" t="s">
         <v>698</v>
       </c>
-      <c r="B241" t="s">
+      <c r="C241" t="s">
         <v>699</v>
-      </c>
-      <c r="C241" t="s">
-        <v>700</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
+        <v>700</v>
+      </c>
+      <c r="B242" t="s">
         <v>701</v>
       </c>
-      <c r="B242" t="s">
+      <c r="C242" t="s">
         <v>702</v>
-      </c>
-      <c r="C242" t="s">
-        <v>703</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
+        <v>703</v>
+      </c>
+      <c r="B243" t="s">
         <v>704</v>
       </c>
-      <c r="B243" t="s">
+      <c r="C243" t="s">
         <v>705</v>
-      </c>
-      <c r="C243" t="s">
-        <v>706</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B244" t="s">
         <v>64</v>
       </c>
       <c r="C244" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
+        <v>707</v>
+      </c>
+      <c r="B245" t="s">
         <v>708</v>
       </c>
-      <c r="B245" t="s">
+      <c r="C245" t="s">
         <v>709</v>
-      </c>
-      <c r="C245" t="s">
-        <v>710</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
+        <v>710</v>
+      </c>
+      <c r="B246" t="s">
         <v>711</v>
       </c>
-      <c r="B246" t="s">
+      <c r="C246" t="s">
         <v>712</v>
-      </c>
-      <c r="C246" t="s">
-        <v>713</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
+        <v>713</v>
+      </c>
+      <c r="B247" t="s">
         <v>714</v>
       </c>
-      <c r="B247" t="s">
+      <c r="C247" t="s">
         <v>715</v>
-      </c>
-      <c r="C247" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
+        <v>716</v>
+      </c>
+      <c r="B248" t="s">
         <v>717</v>
       </c>
-      <c r="B248" t="s">
+      <c r="C248" t="s">
         <v>718</v>
-      </c>
-      <c r="C248" t="s">
-        <v>719</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
+        <v>719</v>
+      </c>
+      <c r="B249" t="s">
         <v>720</v>
       </c>
-      <c r="B249" t="s">
+      <c r="C249" t="s">
         <v>721</v>
-      </c>
-      <c r="C249" t="s">
-        <v>722</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
+        <v>722</v>
+      </c>
+      <c r="B250" t="s">
         <v>723</v>
       </c>
-      <c r="B250" t="s">
+      <c r="C250" t="s">
         <v>724</v>
-      </c>
-      <c r="C250" t="s">
-        <v>725</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
+        <v>725</v>
+      </c>
+      <c r="B251" t="s">
         <v>726</v>
       </c>
-      <c r="B251" t="s">
+      <c r="C251" t="s">
         <v>727</v>
-      </c>
-      <c r="C251" t="s">
-        <v>728</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
+        <v>728</v>
+      </c>
+      <c r="B252" t="s">
         <v>729</v>
       </c>
-      <c r="B252" t="s">
+      <c r="C252" t="s">
         <v>730</v>
-      </c>
-      <c r="C252" t="s">
-        <v>731</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
+        <v>731</v>
+      </c>
+      <c r="B253" t="s">
         <v>732</v>
       </c>
-      <c r="B253" t="s">
+      <c r="C253" t="s">
         <v>733</v>
-      </c>
-      <c r="C253" t="s">
-        <v>734</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
+        <v>734</v>
+      </c>
+      <c r="B254" t="s">
         <v>735</v>
       </c>
-      <c r="B254" t="s">
+      <c r="C254" t="s">
         <v>736</v>
-      </c>
-      <c r="C254" t="s">
-        <v>737</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
+        <v>737</v>
+      </c>
+      <c r="B255" t="s">
         <v>738</v>
       </c>
-      <c r="B255" t="s">
+      <c r="C255" t="s">
         <v>739</v>
-      </c>
-      <c r="C255" t="s">
-        <v>740</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
+        <v>740</v>
+      </c>
+      <c r="B256" t="s">
         <v>741</v>
       </c>
-      <c r="B256" t="s">
+      <c r="C256" t="s">
         <v>742</v>
-      </c>
-      <c r="C256" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
+        <v>743</v>
+      </c>
+      <c r="B257" t="s">
         <v>744</v>
       </c>
-      <c r="B257" t="s">
+      <c r="C257" t="s">
         <v>745</v>
-      </c>
-      <c r="C257" t="s">
-        <v>746</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
+        <v>746</v>
+      </c>
+      <c r="B258" t="s">
         <v>747</v>
       </c>
-      <c r="B258" t="s">
+      <c r="C258" t="s">
         <v>748</v>
-      </c>
-      <c r="C258" t="s">
-        <v>749</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
+        <v>749</v>
+      </c>
+      <c r="B259" t="s">
         <v>750</v>
       </c>
-      <c r="B259" t="s">
+      <c r="C259" t="s">
         <v>751</v>
-      </c>
-      <c r="C259" t="s">
-        <v>752</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
+        <v>752</v>
+      </c>
+      <c r="B260" t="s">
         <v>753</v>
       </c>
-      <c r="B260" t="s">
+      <c r="C260" t="s">
         <v>754</v>
-      </c>
-      <c r="C260" t="s">
-        <v>755</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
+        <v>755</v>
+      </c>
+      <c r="B261" t="s">
         <v>756</v>
       </c>
-      <c r="B261" t="s">
+      <c r="C261" t="s">
         <v>757</v>
-      </c>
-      <c r="C261" t="s">
-        <v>758</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
+        <v>758</v>
+      </c>
+      <c r="B262" t="s">
         <v>759</v>
       </c>
-      <c r="B262" t="s">
+      <c r="C262" t="s">
         <v>760</v>
-      </c>
-      <c r="C262" t="s">
-        <v>761</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
+        <v>761</v>
+      </c>
+      <c r="B263" t="s">
         <v>762</v>
       </c>
-      <c r="B263" t="s">
+      <c r="C263" t="s">
         <v>763</v>
-      </c>
-      <c r="C263" t="s">
-        <v>764</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
+        <v>764</v>
+      </c>
+      <c r="B264" t="s">
         <v>765</v>
       </c>
-      <c r="B264" t="s">
+      <c r="C264" t="s">
         <v>766</v>
-      </c>
-      <c r="C264" t="s">
-        <v>767</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
+        <v>767</v>
+      </c>
+      <c r="B265" t="s">
         <v>768</v>
       </c>
-      <c r="B265" t="s">
+      <c r="C265" t="s">
         <v>769</v>
-      </c>
-      <c r="C265" t="s">
-        <v>770</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
+        <v>770</v>
+      </c>
+      <c r="B266" t="s">
         <v>771</v>
       </c>
-      <c r="B266" t="s">
+      <c r="C266" t="s">
         <v>772</v>
-      </c>
-      <c r="C266" t="s">
-        <v>773</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
+        <v>773</v>
+      </c>
+      <c r="B267" t="s">
         <v>774</v>
       </c>
-      <c r="B267" t="s">
+      <c r="C267" t="s">
         <v>775</v>
-      </c>
-      <c r="C267" t="s">
-        <v>776</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
+        <v>776</v>
+      </c>
+      <c r="B268" t="s">
         <v>777</v>
       </c>
-      <c r="B268" t="s">
+      <c r="C268" t="s">
         <v>778</v>
-      </c>
-      <c r="C268" t="s">
-        <v>779</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
+        <v>779</v>
+      </c>
+      <c r="B269" t="s">
         <v>780</v>
       </c>
-      <c r="B269" t="s">
+      <c r="C269" t="s">
         <v>781</v>
-      </c>
-      <c r="C269" t="s">
-        <v>782</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
+        <v>782</v>
+      </c>
+      <c r="B270" t="s">
         <v>783</v>
       </c>
-      <c r="B270" t="s">
+      <c r="C270" t="s">
         <v>784</v>
-      </c>
-      <c r="C270" t="s">
-        <v>785</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
+        <v>785</v>
+      </c>
+      <c r="B271" t="s">
         <v>786</v>
       </c>
-      <c r="B271" t="s">
+      <c r="C271" t="s">
         <v>787</v>
-      </c>
-      <c r="C271" t="s">
-        <v>788</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
+        <v>788</v>
+      </c>
+      <c r="B272" t="s">
         <v>789</v>
       </c>
-      <c r="B272" t="s">
+      <c r="C272" t="s">
         <v>790</v>
-      </c>
-      <c r="C272" t="s">
-        <v>791</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
+        <v>791</v>
+      </c>
+      <c r="B273" t="s">
         <v>792</v>
       </c>
-      <c r="B273" t="s">
+      <c r="C273" t="s">
         <v>793</v>
-      </c>
-      <c r="C273" t="s">
-        <v>794</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
+        <v>794</v>
+      </c>
+      <c r="B274" t="s">
         <v>795</v>
       </c>
-      <c r="B274" t="s">
+      <c r="C274" t="s">
         <v>796</v>
-      </c>
-      <c r="C274" t="s">
-        <v>797</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
+        <v>797</v>
+      </c>
+      <c r="B275" t="s">
         <v>798</v>
       </c>
-      <c r="B275" t="s">
+      <c r="C275" t="s">
         <v>799</v>
-      </c>
-      <c r="C275" t="s">
-        <v>800</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
+        <v>800</v>
+      </c>
+      <c r="B276" t="s">
         <v>801</v>
       </c>
-      <c r="B276" t="s">
+      <c r="C276" t="s">
         <v>802</v>
-      </c>
-      <c r="C276" t="s">
-        <v>803</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B277" t="s">
         <v>64</v>
       </c>
       <c r="C277" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
+        <v>804</v>
+      </c>
+      <c r="B278" t="s">
         <v>805</v>
       </c>
-      <c r="B278" t="s">
+      <c r="C278" t="s">
         <v>806</v>
-      </c>
-      <c r="C278" t="s">
-        <v>807</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
+        <v>807</v>
+      </c>
+      <c r="B279" t="s">
         <v>808</v>
       </c>
-      <c r="B279" t="s">
+      <c r="C279" t="s">
         <v>809</v>
-      </c>
-      <c r="C279" t="s">
-        <v>810</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
+        <v>810</v>
+      </c>
+      <c r="B280" t="s">
         <v>811</v>
       </c>
-      <c r="B280" t="s">
+      <c r="C280" t="s">
         <v>812</v>
-      </c>
-      <c r="C280" t="s">
-        <v>813</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
+        <v>813</v>
+      </c>
+      <c r="B281" t="s">
         <v>814</v>
       </c>
-      <c r="B281" t="s">
+      <c r="C281" t="s">
         <v>815</v>
-      </c>
-      <c r="C281" t="s">
-        <v>816</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
+        <v>816</v>
+      </c>
+      <c r="B282" t="s">
         <v>817</v>
       </c>
-      <c r="B282" t="s">
+      <c r="C282" t="s">
         <v>818</v>
-      </c>
-      <c r="C282" t="s">
-        <v>819</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
+        <v>819</v>
+      </c>
+      <c r="B283" t="s">
         <v>820</v>
       </c>
-      <c r="B283" t="s">
+      <c r="C283" t="s">
         <v>821</v>
-      </c>
-      <c r="C283" t="s">
-        <v>822</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
+        <v>822</v>
+      </c>
+      <c r="B284" t="s">
         <v>823</v>
       </c>
-      <c r="B284" t="s">
+      <c r="C284" t="s">
         <v>824</v>
-      </c>
-      <c r="C284" t="s">
-        <v>825</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
+        <v>825</v>
+      </c>
+      <c r="B285" t="s">
         <v>826</v>
       </c>
-      <c r="B285" t="s">
+      <c r="C285" t="s">
         <v>827</v>
-      </c>
-      <c r="C285" t="s">
-        <v>828</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
+        <v>828</v>
+      </c>
+      <c r="B286" t="s">
         <v>829</v>
       </c>
-      <c r="B286" t="s">
+      <c r="C286" t="s">
         <v>830</v>
-      </c>
-      <c r="C286" t="s">
-        <v>831</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
+        <v>831</v>
+      </c>
+      <c r="B287" t="s">
         <v>832</v>
       </c>
-      <c r="B287" t="s">
+      <c r="C287" t="s">
         <v>833</v>
-      </c>
-      <c r="C287" t="s">
-        <v>834</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
+        <v>834</v>
+      </c>
+      <c r="B288" t="s">
         <v>835</v>
       </c>
-      <c r="B288" t="s">
+      <c r="C288" t="s">
         <v>836</v>
-      </c>
-      <c r="C288" t="s">
-        <v>837</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
+        <v>837</v>
+      </c>
+      <c r="B289" t="s">
         <v>838</v>
       </c>
-      <c r="B289" t="s">
+      <c r="C289" t="s">
         <v>839</v>
-      </c>
-      <c r="C289" t="s">
-        <v>840</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
+        <v>840</v>
+      </c>
+      <c r="B290" t="s">
         <v>841</v>
       </c>
-      <c r="B290" t="s">
+      <c r="C290" t="s">
         <v>842</v>
-      </c>
-      <c r="C290" t="s">
-        <v>843</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
+        <v>843</v>
+      </c>
+      <c r="B291" t="s">
         <v>844</v>
       </c>
-      <c r="B291" t="s">
+      <c r="C291" t="s">
         <v>845</v>
-      </c>
-      <c r="C291" t="s">
-        <v>846</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
+        <v>846</v>
+      </c>
+      <c r="B292" t="s">
         <v>847</v>
       </c>
-      <c r="B292" t="s">
+      <c r="C292" t="s">
         <v>848</v>
-      </c>
-      <c r="C292" t="s">
-        <v>849</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
+        <v>849</v>
+      </c>
+      <c r="B293" t="s">
         <v>850</v>
       </c>
-      <c r="B293" t="s">
+      <c r="C293" t="s">
         <v>851</v>
-      </c>
-      <c r="C293" t="s">
-        <v>852</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
+        <v>852</v>
+      </c>
+      <c r="B294" t="s">
         <v>853</v>
       </c>
-      <c r="B294" t="s">
+      <c r="C294" t="s">
         <v>854</v>
-      </c>
-      <c r="C294" t="s">
-        <v>855</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
+        <v>855</v>
+      </c>
+      <c r="B295" t="s">
         <v>856</v>
       </c>
-      <c r="B295" t="s">
+      <c r="C295" t="s">
         <v>857</v>
-      </c>
-      <c r="C295" t="s">
-        <v>858</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
+        <v>858</v>
+      </c>
+      <c r="B296" t="s">
         <v>859</v>
       </c>
-      <c r="B296" t="s">
+      <c r="C296" t="s">
         <v>860</v>
-      </c>
-      <c r="C296" t="s">
-        <v>861</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
+        <v>861</v>
+      </c>
+      <c r="B297" t="s">
         <v>862</v>
       </c>
-      <c r="B297" t="s">
+      <c r="C297" t="s">
         <v>863</v>
-      </c>
-      <c r="C297" t="s">
-        <v>864</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
+        <v>864</v>
+      </c>
+      <c r="B298" t="s">
         <v>865</v>
       </c>
-      <c r="B298" t="s">
+      <c r="C298" t="s">
         <v>866</v>
-      </c>
-      <c r="C298" t="s">
-        <v>867</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
+        <v>867</v>
+      </c>
+      <c r="B299" t="s">
         <v>868</v>
       </c>
-      <c r="B299" t="s">
+      <c r="C299" t="s">
         <v>869</v>
-      </c>
-      <c r="C299" t="s">
-        <v>870</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
+        <v>870</v>
+      </c>
+      <c r="B300" t="s">
         <v>871</v>
       </c>
-      <c r="B300" t="s">
+      <c r="C300" t="s">
         <v>872</v>
-      </c>
-      <c r="C300" t="s">
-        <v>873</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
+        <v>873</v>
+      </c>
+      <c r="B301" t="s">
         <v>874</v>
       </c>
-      <c r="B301" t="s">
+      <c r="C301" t="s">
         <v>875</v>
-      </c>
-      <c r="C301" t="s">
-        <v>876</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
+        <v>876</v>
+      </c>
+      <c r="B302" t="s">
         <v>877</v>
       </c>
-      <c r="B302" t="s">
+      <c r="C302" t="s">
         <v>878</v>
-      </c>
-      <c r="C302" t="s">
-        <v>879</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
+        <v>879</v>
+      </c>
+      <c r="B303" t="s">
         <v>880</v>
       </c>
-      <c r="B303" t="s">
+      <c r="C303" t="s">
         <v>881</v>
-      </c>
-      <c r="C303" t="s">
-        <v>882</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
+        <v>882</v>
+      </c>
+      <c r="B304" t="s">
         <v>883</v>
       </c>
-      <c r="B304" t="s">
+      <c r="C304" t="s">
         <v>884</v>
-      </c>
-      <c r="C304" t="s">
-        <v>885</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
+        <v>885</v>
+      </c>
+      <c r="B305" t="s">
         <v>886</v>
       </c>
-      <c r="B305" t="s">
+      <c r="C305" t="s">
         <v>887</v>
-      </c>
-      <c r="C305" t="s">
-        <v>888</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
+        <v>888</v>
+      </c>
+      <c r="B306" t="s">
         <v>889</v>
       </c>
-      <c r="B306" t="s">
+      <c r="C306" t="s">
         <v>890</v>
-      </c>
-      <c r="C306" t="s">
-        <v>891</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
+        <v>891</v>
+      </c>
+      <c r="B307" t="s">
         <v>892</v>
       </c>
-      <c r="B307" t="s">
+      <c r="C307" t="s">
         <v>893</v>
-      </c>
-      <c r="C307" t="s">
-        <v>894</v>
       </c>
     </row>
   </sheetData>
